--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message.xlsx
@@ -1,39 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c7n-hzero\hzero-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2EE928-36AE-49DF-898C-CF3C17B796D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="邮箱服务配置" r:id="rId5" sheetId="2"/>
-    <sheet name="短信服务配置" r:id="rId6" sheetId="3"/>
-    <sheet name="消息模板" r:id="rId7" sheetId="4"/>
-    <sheet name="接收配置" r:id="rId8" sheetId="5"/>
-    <sheet name="接收组" r:id="rId9" sheetId="6"/>
-    <sheet name="发送配置" r:id="rId10" sheetId="7"/>
-    <sheet name="微信企业号配置" r:id="rId11" sheetId="8"/>
-    <sheet name="微信公众号配置" r:id="rId12" sheetId="9"/>
+    <sheet name="邮箱服务配置" sheetId="2" r:id="rId2"/>
+    <sheet name="短信服务配置" sheetId="3" r:id="rId3"/>
+    <sheet name="消息模板" sheetId="4" r:id="rId4"/>
+    <sheet name="接收配置" sheetId="5" r:id="rId5"/>
+    <sheet name="接收组" sheetId="6" r:id="rId6"/>
+    <sheet name="发送配置" sheetId="7" r:id="rId7"/>
+    <sheet name="微信企业号配置" sheetId="8" r:id="rId8"/>
+    <sheet name="微信公众号配置" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="291">
   <si>
     <r>
       <rPr>
@@ -2726,13 +2735,20 @@
   </si>
   <si>
     <t>secret</t>
+  </si>
+  <si>
+    <t>choerodon-email</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon默认邮箱配置</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="127">
     <font>
       <sz val="12"/>
@@ -2852,549 +2868,658 @@
       <charset val="134"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3535,7 +3660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3587,6 +3712,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3602,119 +3836,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4054,59 +4180,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="136"/>
+      <c r="E3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="139"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4123,7 +4249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -4143,7 +4269,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -4157,7 +4283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -4168,7 +4294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -4200,7 +4326,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -4217,13 +4343,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+    </row>
+    <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -4231,7 +4357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -4239,7 +4365,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -4247,7 +4373,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -4259,21 +4385,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="136"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
+      <c r="E26" s="136"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -4295,39 +4421,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:17">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:17">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4337,13 +4470,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="88">
+      <c r="D7" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="89">
+      <c r="E7" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="90">
+      <c r="F7" s="85" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4376,11 +4509,11 @@
       <c r="P7" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" t="s" s="91">
+      <c r="Q7" s="86" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:17">
       <c r="E8" t="s">
         <v>67</v>
       </c>
@@ -4418,7 +4551,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:17">
       <c r="E9" t="s">
         <v>78</v>
       </c>
@@ -4456,7 +4589,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:17">
       <c r="E10" t="s">
         <v>84</v>
       </c>
@@ -4494,7 +4627,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:17">
       <c r="E11" t="s">
         <v>90</v>
       </c>
@@ -4532,74 +4665,83 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
+    <row r="12" spans="1:17">
+      <c r="F12" s="141" t="s">
+        <v>289</v>
+      </c>
+      <c r="G12" s="141" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>96</v>
       </c>
-      <c r="D13" t="s" s="92">
+      <c r="D14" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="E13" t="s" s="93">
+      <c r="E14" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="F13" t="s" s="94">
+      <c r="F14" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="G13" t="s" s="95">
+      <c r="G14" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>101</v>
       </c>
-      <c r="I13" t="s" s="96">
+      <c r="I14" s="91" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="39">
+    <row r="1" spans="1:14">
+      <c r="A1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="40">
+      <c r="B1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="41">
+      <c r="C1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="42">
+      <c r="D1" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="43">
+    <row r="4" spans="1:14">
+      <c r="E4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="44">
+      <c r="F4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="45">
+      <c r="G4" s="40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4609,13 +4751,13 @@
       <c r="C7" t="s">
         <v>102</v>
       </c>
-      <c r="D7" t="s" s="97">
+      <c r="D7" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="E7" t="s" s="98">
+      <c r="E7" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="99">
+      <c r="F7" s="94" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4639,11 +4781,11 @@
       <c r="M7" t="s">
         <v>64</v>
       </c>
-      <c r="N7" t="s" s="100">
+      <c r="N7" s="95" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14">
       <c r="E8" t="s">
         <v>109</v>
       </c>
@@ -4675,7 +4817,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14">
       <c r="E9" t="s">
         <v>116</v>
       </c>
@@ -4707,7 +4849,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14">
       <c r="E10" t="s">
         <v>124</v>
       </c>
@@ -4740,44 +4882,45 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="46">
+    <row r="1" spans="1:16">
+      <c r="A1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="47">
+      <c r="B1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="48">
+      <c r="C1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="49">
+      <c r="D1" s="44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="50">
+    <row r="4" spans="1:16">
+      <c r="E4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="51">
+      <c r="F4" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="52">
+      <c r="G4" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4787,13 +4930,13 @@
       <c r="C7" t="s">
         <v>127</v>
       </c>
-      <c r="D7" t="s" s="101">
+      <c r="D7" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="E7" t="s" s="102">
+      <c r="E7" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="F7" t="s" s="103">
+      <c r="F7" s="98" t="s">
         <v>130</v>
       </c>
       <c r="G7" t="s">
@@ -4817,17 +4960,17 @@
       <c r="M7" t="s">
         <v>137</v>
       </c>
-      <c r="N7" t="s" s="104">
+      <c r="N7" s="99" t="s">
         <v>138</v>
       </c>
       <c r="O7" t="s">
         <v>64</v>
       </c>
-      <c r="P7" t="s" s="105">
+      <c r="P7" s="100" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16">
       <c r="E8" t="s">
         <v>139</v>
       </c>
@@ -4856,7 +4999,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16">
       <c r="E9" t="s">
         <v>145</v>
       </c>
@@ -4885,7 +5028,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16">
       <c r="E10" t="s">
         <v>151</v>
       </c>
@@ -4920,7 +5063,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16">
       <c r="E11" t="s">
         <v>158</v>
       </c>
@@ -4952,7 +5095,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16">
       <c r="E12" t="s">
         <v>162</v>
       </c>
@@ -4981,7 +5124,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16">
       <c r="E13" t="s">
         <v>168</v>
       </c>
@@ -5007,7 +5150,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16">
       <c r="E14" t="s">
         <v>172</v>
       </c>
@@ -5042,7 +5185,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16">
       <c r="E15" t="s">
         <v>177</v>
       </c>
@@ -5077,7 +5220,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16">
       <c r="E16" t="s">
         <v>184</v>
       </c>
@@ -5103,7 +5246,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:16">
       <c r="E17" t="s">
         <v>188</v>
       </c>
@@ -5132,7 +5275,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:16">
       <c r="E18" t="s">
         <v>193</v>
       </c>
@@ -5161,7 +5304,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:16">
       <c r="E19" t="s">
         <v>199</v>
       </c>
@@ -5190,7 +5333,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -5200,16 +5343,16 @@
       <c r="C21" t="s">
         <v>203</v>
       </c>
-      <c r="D21" t="s" s="106">
+      <c r="D21" s="101" t="s">
         <v>204</v>
       </c>
-      <c r="E21" t="s" s="107">
+      <c r="E21" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="F21" t="s" s="108">
+      <c r="F21" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="G21" t="s" s="109">
+      <c r="G21" s="104" t="s">
         <v>207</v>
       </c>
       <c r="H21" t="s">
@@ -5219,12 +5362,13 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:16">
       <c r="E22" t="s">
         <v>210</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="str">
         <f>消息模板!$E$8</f>
+        <v>hmsg_message_template-8</v>
       </c>
       <c r="G22" t="s">
         <v>211</v>
@@ -5236,100 +5380,106 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:16">
       <c r="E23" t="s">
         <v>210</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="str">
         <f>消息模板!$E$12</f>
+        <v>hmsg_message_template-12</v>
       </c>
       <c r="G23" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:16">
       <c r="E24" t="s">
         <v>210</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="str">
         <f>消息模板!$E$18</f>
+        <v>hmsg_message_template-18</v>
       </c>
       <c r="G24" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:16">
       <c r="E25" t="s">
         <v>210</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="str">
         <f>消息模板!$E$11</f>
+        <v>hmsg_message_template-11</v>
       </c>
       <c r="G25" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:16">
       <c r="E26" t="s">
         <v>210</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="str">
         <f>消息模板!$E$14</f>
+        <v>hmsg_message_template-14</v>
       </c>
       <c r="G26" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:16">
       <c r="E27" t="s">
         <v>210</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="str">
         <f>消息模板!$E$10</f>
+        <v>hmsg_message_template-10</v>
       </c>
       <c r="G27" t="s">
         <v>211</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="53">
+    <row r="1" spans="1:12">
+      <c r="A1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="54">
+      <c r="B1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="55">
+      <c r="C1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="56">
+      <c r="D1" s="51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="57">
+    <row r="4" spans="1:12">
+      <c r="E4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="58">
+      <c r="F4" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="59">
+      <c r="G4" s="54" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5339,13 +5489,13 @@
       <c r="C7" t="s">
         <v>213</v>
       </c>
-      <c r="D7" t="s" s="110">
+      <c r="D7" s="105" t="s">
         <v>214</v>
       </c>
-      <c r="E7" t="s" s="111">
+      <c r="E7" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="F7" t="s" s="112">
+      <c r="F7" s="107" t="s">
         <v>216</v>
       </c>
       <c r="G7" t="s">
@@ -5357,17 +5507,17 @@
       <c r="I7" t="s">
         <v>219</v>
       </c>
-      <c r="J7" t="s" s="113">
+      <c r="J7" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="K7" t="s" s="114">
+      <c r="K7" s="109" t="s">
         <v>66</v>
       </c>
       <c r="L7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12">
       <c r="E8" t="s">
         <v>222</v>
       </c>
@@ -5394,44 +5544,45 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="60">
+    <row r="1" spans="1:12">
+      <c r="A1" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="61">
+      <c r="B1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="62">
+      <c r="C1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="63">
+      <c r="D1" s="58" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="64">
+    <row r="4" spans="1:12">
+      <c r="E4" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="65">
+      <c r="F4" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="66">
+      <c r="G4" s="61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5441,13 +5592,13 @@
       <c r="C7" t="s">
         <v>227</v>
       </c>
-      <c r="D7" t="s" s="115">
+      <c r="D7" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="E7" t="s" s="116">
+      <c r="E7" s="111" t="s">
         <v>229</v>
       </c>
-      <c r="F7" t="s" s="117">
+      <c r="F7" s="112" t="s">
         <v>230</v>
       </c>
       <c r="G7" t="s">
@@ -5465,49 +5616,50 @@
       <c r="K7" t="s">
         <v>64</v>
       </c>
-      <c r="L7" t="s" s="118">
+      <c r="L7" s="113" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="67">
+    <row r="1" spans="1:9">
+      <c r="A1" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="68">
+      <c r="B1" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="69">
+      <c r="C1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="70">
+      <c r="D1" s="65" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="71">
+    <row r="4" spans="1:9">
+      <c r="E4" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="72">
+      <c r="F4" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="73">
+      <c r="G4" s="68" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5517,16 +5669,16 @@
       <c r="C7" t="s">
         <v>235</v>
       </c>
-      <c r="D7" t="s" s="119">
+      <c r="D7" s="114" t="s">
         <v>236</v>
       </c>
-      <c r="E7" t="s" s="120">
+      <c r="E7" s="115" t="s">
         <v>237</v>
       </c>
-      <c r="F7" t="s" s="121">
+      <c r="F7" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="G7" t="s" s="122">
+      <c r="G7" s="117" t="s">
         <v>238</v>
       </c>
       <c r="H7" t="s">
@@ -5536,7 +5688,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9">
       <c r="E8" t="s">
         <v>240</v>
       </c>
@@ -5553,7 +5705,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9">
       <c r="E9" t="s">
         <v>241</v>
       </c>
@@ -5570,7 +5722,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9">
       <c r="E10" t="s">
         <v>243</v>
       </c>
@@ -5587,7 +5739,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9">
       <c r="E11" t="s">
         <v>244</v>
       </c>
@@ -5604,7 +5756,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9">
       <c r="E12" t="s">
         <v>245</v>
       </c>
@@ -5621,7 +5773,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9">
       <c r="E13" t="s">
         <v>247</v>
       </c>
@@ -5638,7 +5790,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9">
       <c r="E14" t="s">
         <v>248</v>
       </c>
@@ -5655,7 +5807,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9">
       <c r="E15" t="s">
         <v>250</v>
       </c>
@@ -5672,7 +5824,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9">
       <c r="E16" t="s">
         <v>251</v>
       </c>
@@ -5689,7 +5841,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10">
       <c r="E17" t="s">
         <v>253</v>
       </c>
@@ -5706,7 +5858,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10">
       <c r="E18" t="s">
         <v>254</v>
       </c>
@@ -5723,7 +5875,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -5733,34 +5885,35 @@
       <c r="C20" t="s">
         <v>255</v>
       </c>
-      <c r="D20" t="s" s="123">
+      <c r="D20" s="118" t="s">
         <v>256</v>
       </c>
-      <c r="E20" t="s" s="124">
+      <c r="E20" s="119" t="s">
         <v>257</v>
       </c>
-      <c r="F20" t="s" s="125">
+      <c r="F20" s="120" t="s">
         <v>258</v>
       </c>
-      <c r="G20" t="s" s="126">
+      <c r="G20" s="121" t="s">
         <v>230</v>
       </c>
       <c r="H20" t="s">
         <v>259</v>
       </c>
-      <c r="I20" t="s" s="127">
+      <c r="I20" s="122" t="s">
         <v>260</v>
       </c>
       <c r="J20" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10">
       <c r="E21" t="s">
         <v>262</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="str">
         <f>发送配置!$E$18</f>
+        <v>hmsg_template_server-18</v>
       </c>
       <c r="G21" t="s">
         <v>263</v>
@@ -5768,16 +5921,18 @@
       <c r="H21" t="s">
         <v>200</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="str">
         <f>邮箱服务配置!$E$10</f>
-      </c>
-    </row>
-    <row r="22">
+        <v>hmsg_email_server-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="E22" t="s">
         <v>264</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="str">
         <f>发送配置!$E$14</f>
+        <v>hmsg_template_server-14</v>
       </c>
       <c r="G22" t="s">
         <v>263</v>
@@ -5785,16 +5940,18 @@
       <c r="H22" t="s">
         <v>178</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="str">
         <f>邮箱服务配置!$E$10</f>
-      </c>
-    </row>
-    <row r="23">
+        <v>hmsg_email_server-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="E23" t="s">
         <v>265</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="str">
         <f>发送配置!$E$11</f>
+        <v>hmsg_template_server-11</v>
       </c>
       <c r="G23" t="s">
         <v>263</v>
@@ -5802,16 +5959,18 @@
       <c r="H23" t="s">
         <v>159</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="str">
         <f>邮箱服务配置!$E$10</f>
-      </c>
-    </row>
-    <row r="24">
+        <v>hmsg_email_server-10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="E24" t="s">
         <v>266</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="str">
         <f>发送配置!$E$15</f>
+        <v>hmsg_template_server-15</v>
       </c>
       <c r="G24" t="s">
         <v>263</v>
@@ -5819,16 +5978,18 @@
       <c r="H24" t="s">
         <v>185</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="str">
         <f>邮箱服务配置!$E$10</f>
-      </c>
-    </row>
-    <row r="25">
+        <v>hmsg_email_server-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="E25" t="s">
         <v>267</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="str">
         <f>发送配置!$E$10</f>
+        <v>hmsg_template_server-10</v>
       </c>
       <c r="G25" t="s">
         <v>263</v>
@@ -5836,16 +5997,18 @@
       <c r="H25" t="s">
         <v>152</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="str">
         <f>邮箱服务配置!$E$10</f>
-      </c>
-    </row>
-    <row r="26">
+        <v>hmsg_email_server-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="E26" t="s">
         <v>268</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="str">
         <f>发送配置!$E$9</f>
+        <v>hmsg_template_server-9</v>
       </c>
       <c r="G26" t="s">
         <v>263</v>
@@ -5853,11 +6016,12 @@
       <c r="H26" t="s">
         <v>146</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="str">
         <f>邮箱服务配置!$E$10</f>
-      </c>
-    </row>
-    <row r="28">
+        <v>hmsg_email_server-10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -5867,34 +6031,35 @@
       <c r="C28" t="s">
         <v>269</v>
       </c>
-      <c r="D28" t="s" s="128">
+      <c r="D28" s="123" t="s">
         <v>256</v>
       </c>
-      <c r="E28" t="s" s="129">
+      <c r="E28" s="124" t="s">
         <v>257</v>
       </c>
-      <c r="F28" t="s" s="130">
+      <c r="F28" s="125" t="s">
         <v>258</v>
       </c>
-      <c r="G28" t="s" s="131">
+      <c r="G28" s="126" t="s">
         <v>230</v>
       </c>
       <c r="H28" t="s">
         <v>259</v>
       </c>
-      <c r="I28" t="s" s="132">
+      <c r="I28" s="127" t="s">
         <v>260</v>
       </c>
       <c r="J28" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10">
       <c r="E29" t="s">
         <v>270</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="str">
         <f>发送配置!$E$8</f>
+        <v>hmsg_template_server-8</v>
       </c>
       <c r="G29" t="s">
         <v>271</v>
@@ -5902,16 +6067,18 @@
       <c r="H29" t="s">
         <v>140</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="str">
         <f>短信服务配置!$E$8</f>
-      </c>
-    </row>
-    <row r="30">
+        <v>hmsg_sms_server-8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="E30" t="s">
         <v>272</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="str">
         <f>发送配置!$E$18</f>
+        <v>hmsg_template_server-18</v>
       </c>
       <c r="G30" t="s">
         <v>271</v>
@@ -5919,16 +6086,18 @@
       <c r="H30" t="s">
         <v>200</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="str">
         <f>短信服务配置!$E$8</f>
-      </c>
-    </row>
-    <row r="31">
+        <v>hmsg_sms_server-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="E31" t="s">
         <v>273</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="str">
         <f>发送配置!$E$14</f>
+        <v>hmsg_template_server-14</v>
       </c>
       <c r="G31" t="s">
         <v>271</v>
@@ -5936,16 +6105,18 @@
       <c r="H31" t="s">
         <v>178</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="str">
         <f>短信服务配置!$E$8</f>
-      </c>
-    </row>
-    <row r="32">
+        <v>hmsg_sms_server-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="E32" t="s">
         <v>274</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="str">
         <f>发送配置!$E$13</f>
+        <v>hmsg_template_server-13</v>
       </c>
       <c r="G32" t="s">
         <v>271</v>
@@ -5953,16 +6124,18 @@
       <c r="H32" t="s">
         <v>173</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="str">
         <f>短信服务配置!$E$8</f>
-      </c>
-    </row>
-    <row r="33">
+        <v>hmsg_sms_server-8</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9">
       <c r="E33" t="s">
         <v>275</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="str">
         <f>发送配置!$E$16</f>
+        <v>hmsg_template_server-16</v>
       </c>
       <c r="G33" t="s">
         <v>271</v>
@@ -5970,16 +6143,18 @@
       <c r="H33" t="s">
         <v>189</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="str">
         <f>短信服务配置!$E$8</f>
-      </c>
-    </row>
-    <row r="34">
+        <v>hmsg_sms_server-8</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9">
       <c r="E34" t="s">
         <v>276</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="str">
         <f>发送配置!$E$10</f>
+        <v>hmsg_template_server-10</v>
       </c>
       <c r="G34" t="s">
         <v>271</v>
@@ -5987,16 +6162,18 @@
       <c r="H34" t="s">
         <v>152</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="str">
         <f>短信服务配置!$E$8</f>
-      </c>
-    </row>
-    <row r="35">
+        <v>hmsg_sms_server-8</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9">
       <c r="E35" t="s">
         <v>277</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="str">
         <f>发送配置!$E$9</f>
+        <v>hmsg_template_server-9</v>
       </c>
       <c r="G35" t="s">
         <v>271</v>
@@ -6004,49 +6181,51 @@
       <c r="H35" t="s">
         <v>146</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="str">
         <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="74">
+    <row r="1" spans="1:14">
+      <c r="A1" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="75">
+      <c r="B1" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="76">
+      <c r="C1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="77">
+      <c r="D1" s="72" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="78">
+    <row r="4" spans="1:14">
+      <c r="E4" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="79">
+      <c r="F4" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="80">
+      <c r="G4" s="75" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -6056,13 +6235,13 @@
       <c r="C7" t="s">
         <v>278</v>
       </c>
-      <c r="D7" t="s" s="133">
+      <c r="D7" s="128" t="s">
         <v>279</v>
       </c>
-      <c r="E7" t="s" s="134">
+      <c r="E7" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="135">
+      <c r="F7" s="130" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -6086,49 +6265,50 @@
       <c r="M7" t="s">
         <v>64</v>
       </c>
-      <c r="N7" t="s" s="136">
+      <c r="N7" s="131" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="81">
+    <row r="1" spans="1:13">
+      <c r="A1" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="82">
+      <c r="B1" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="83">
+      <c r="C1" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="84">
+      <c r="D1" s="79" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="85">
+    <row r="4" spans="1:13">
+      <c r="E4" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="86">
+      <c r="F4" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="87">
+      <c r="G4" s="82" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -6138,13 +6318,13 @@
       <c r="C7" t="s">
         <v>285</v>
       </c>
-      <c r="D7" t="s" s="137">
+      <c r="D7" s="132" t="s">
         <v>286</v>
       </c>
-      <c r="E7" t="s" s="138">
+      <c r="E7" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="139">
+      <c r="F7" s="134" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -6165,11 +6345,13 @@
       <c r="L7" t="s">
         <v>64</v>
       </c>
-      <c r="M7" t="s" s="140">
+      <c r="M7" s="135" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c7n-hzero\hzero-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2EE928-36AE-49DF-898C-CF3C17B796D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB114C0B-E6C3-470E-A94E-6A36A05DB6E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="289">
   <si>
     <r>
       <rPr>
@@ -2735,14 +2735,6 @@
   </si>
   <si>
     <t>secret</t>
-  </si>
-  <si>
-    <t>choerodon-email</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon默认邮箱配置</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3660,7 +3652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3836,7 +3828,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4422,10 +4413,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4665,40 +4656,32 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="F12" s="141" t="s">
-        <v>289</v>
-      </c>
-      <c r="G12" s="141" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" t="s">
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
         <v>50</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C13" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D13" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E13" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="89" t="s">
+      <c r="F13" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="90" t="s">
+      <c r="G13" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H13" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="91" t="s">
+      <c r="I13" s="91" t="s">
         <v>66</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message.xlsx
@@ -1,43 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c7n-hzero\hzero-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB114C0B-E6C3-470E-A94E-6A36A05DB6E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="邮箱服务配置" sheetId="2" r:id="rId2"/>
-    <sheet name="短信服务配置" sheetId="3" r:id="rId3"/>
-    <sheet name="消息模板" sheetId="4" r:id="rId4"/>
-    <sheet name="接收配置" sheetId="5" r:id="rId5"/>
-    <sheet name="接收组" sheetId="6" r:id="rId6"/>
-    <sheet name="发送配置" sheetId="7" r:id="rId7"/>
-    <sheet name="微信企业号配置" sheetId="8" r:id="rId8"/>
-    <sheet name="微信公众号配置" sheetId="9" r:id="rId9"/>
+    <sheet name="邮箱服务配置" r:id="rId5" sheetId="2"/>
+    <sheet name="短信服务配置" r:id="rId6" sheetId="3"/>
+    <sheet name="消息模板" r:id="rId7" sheetId="4"/>
+    <sheet name="接收配置" r:id="rId8" sheetId="5"/>
+    <sheet name="接收组" r:id="rId9" sheetId="6"/>
+    <sheet name="发送配置" r:id="rId10" sheetId="7"/>
+    <sheet name="微信企业号配置" r:id="rId11" sheetId="8"/>
+    <sheet name="微信公众号配置" r:id="rId12" sheetId="9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2740,7 +2731,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="127">
     <font>
       <sz val="12"/>
@@ -2860,658 +2852,549 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3704,115 +3587,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3828,10 +3602,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4171,59 +4054,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="18">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="138" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="139" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="139"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4240,7 +4123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="18">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -4260,7 +4143,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
+    <row r="9" spans="1:8" ht="51.75">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -4274,7 +4157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="51.75">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -4285,7 +4168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
+    <row r="11" spans="1:8" ht="69">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -4317,7 +4200,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
+    <row r="15" spans="1:8" ht="34.5">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -4334,13 +4217,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-    </row>
-    <row r="20" spans="3:5">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -4348,7 +4231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" ht="18">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -4356,7 +4239,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" ht="18">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -4364,7 +4247,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" ht="18">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -4376,21 +4259,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="136" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="136"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="136" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="136"/>
-    </row>
-    <row r="27" spans="3:5" ht="52.2">
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -4412,46 +4295,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="5" max="5" width="27.5" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4461,13 +4337,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" t="s" s="88">
         <v>53</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" t="s" s="89">
         <v>54</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" t="s" s="90">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4500,11 +4376,11 @@
       <c r="P7" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="86" t="s">
+      <c r="Q7" t="s" s="91">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8">
       <c r="E8" t="s">
         <v>67</v>
       </c>
@@ -4542,7 +4418,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9">
       <c r="E9" t="s">
         <v>78</v>
       </c>
@@ -4580,7 +4456,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10">
       <c r="E10" t="s">
         <v>84</v>
       </c>
@@ -4618,7 +4494,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11">
       <c r="E11" t="s">
         <v>90</v>
       </c>
@@ -4656,7 +4532,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -4666,65 +4542,64 @@
       <c r="C13" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" t="s" s="92">
         <v>97</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" t="s" s="93">
         <v>98</v>
       </c>
-      <c r="F13" s="89" t="s">
+      <c r="F13" t="s" s="94">
         <v>99</v>
       </c>
-      <c r="G13" s="90" t="s">
+      <c r="G13" t="s" s="95">
         <v>100</v>
       </c>
       <c r="H13" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="91" t="s">
+      <c r="I13" t="s" s="96">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="34" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="39">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" t="s" s="40">
         <v>45</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" t="s" s="41">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" t="s" s="42">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="E4" s="38" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="43">
         <v>47</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" t="s" s="44">
         <v>48</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" t="s" s="45">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4734,13 +4609,13 @@
       <c r="C7" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" t="s" s="97">
         <v>103</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" t="s" s="98">
         <v>54</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" t="s" s="99">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4764,11 +4639,11 @@
       <c r="M7" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="95" t="s">
+      <c r="N7" t="s" s="100">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8">
       <c r="E8" t="s">
         <v>109</v>
       </c>
@@ -4800,7 +4675,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9">
       <c r="E9" t="s">
         <v>116</v>
       </c>
@@ -4832,7 +4707,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10">
       <c r="E10" t="s">
         <v>124</v>
       </c>
@@ -4865,45 +4740,44 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="41" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="46">
         <v>44</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" t="s" s="47">
         <v>45</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" t="s" s="48">
         <v>9</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" t="s" s="49">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="E4" s="45" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="50">
         <v>47</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" t="s" s="51">
         <v>48</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" t="s" s="52">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4913,13 +4787,13 @@
       <c r="C7" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" t="s" s="101">
         <v>128</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" t="s" s="102">
         <v>129</v>
       </c>
-      <c r="F7" s="98" t="s">
+      <c r="F7" t="s" s="103">
         <v>130</v>
       </c>
       <c r="G7" t="s">
@@ -4943,17 +4817,17 @@
       <c r="M7" t="s">
         <v>137</v>
       </c>
-      <c r="N7" s="99" t="s">
+      <c r="N7" t="s" s="104">
         <v>138</v>
       </c>
       <c r="O7" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="100" t="s">
+      <c r="P7" t="s" s="105">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8">
       <c r="E8" t="s">
         <v>139</v>
       </c>
@@ -4982,7 +4856,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9">
       <c r="E9" t="s">
         <v>145</v>
       </c>
@@ -5011,7 +4885,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10">
       <c r="E10" t="s">
         <v>151</v>
       </c>
@@ -5046,7 +4920,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11">
       <c r="E11" t="s">
         <v>158</v>
       </c>
@@ -5078,7 +4952,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12">
       <c r="E12" t="s">
         <v>162</v>
       </c>
@@ -5107,7 +4981,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13">
       <c r="E13" t="s">
         <v>168</v>
       </c>
@@ -5133,7 +5007,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14">
       <c r="E14" t="s">
         <v>172</v>
       </c>
@@ -5168,7 +5042,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15">
       <c r="E15" t="s">
         <v>177</v>
       </c>
@@ -5203,7 +5077,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16">
       <c r="E16" t="s">
         <v>184</v>
       </c>
@@ -5229,7 +5103,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17">
       <c r="E17" t="s">
         <v>188</v>
       </c>
@@ -5258,7 +5132,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18">
       <c r="E18" t="s">
         <v>193</v>
       </c>
@@ -5287,7 +5161,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19">
       <c r="E19" t="s">
         <v>199</v>
       </c>
@@ -5316,7 +5190,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -5326,16 +5200,16 @@
       <c r="C21" t="s">
         <v>203</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" t="s" s="106">
         <v>204</v>
       </c>
-      <c r="E21" s="102" t="s">
+      <c r="E21" t="s" s="107">
         <v>205</v>
       </c>
-      <c r="F21" s="103" t="s">
+      <c r="F21" t="s" s="108">
         <v>206</v>
       </c>
-      <c r="G21" s="104" t="s">
+      <c r="G21" t="s" s="109">
         <v>207</v>
       </c>
       <c r="H21" t="s">
@@ -5345,13 +5219,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22">
       <c r="E22" t="s">
         <v>210</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F22">
         <f>消息模板!$E$8</f>
-        <v>hmsg_message_template-8</v>
       </c>
       <c r="G22" t="s">
         <v>211</v>
@@ -5363,106 +5236,100 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23">
       <c r="E23" t="s">
         <v>210</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F23">
         <f>消息模板!$E$12</f>
-        <v>hmsg_message_template-12</v>
       </c>
       <c r="G23" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24">
       <c r="E24" t="s">
         <v>210</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F24">
         <f>消息模板!$E$18</f>
-        <v>hmsg_message_template-18</v>
       </c>
       <c r="G24" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25">
       <c r="E25" t="s">
         <v>210</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F25">
         <f>消息模板!$E$11</f>
-        <v>hmsg_message_template-11</v>
       </c>
       <c r="G25" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26">
       <c r="E26" t="s">
         <v>210</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F26">
         <f>消息模板!$E$14</f>
-        <v>hmsg_message_template-14</v>
       </c>
       <c r="G26" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27">
       <c r="E27" t="s">
         <v>210</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27">
         <f>消息模板!$E$10</f>
-        <v>hmsg_message_template-10</v>
       </c>
       <c r="G27" t="s">
         <v>211</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="48" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="53">
         <v>44</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" t="s" s="54">
         <v>45</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" t="s" s="55">
         <v>9</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" t="s" s="56">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="E4" s="52" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="57">
         <v>47</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" t="s" s="58">
         <v>48</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" t="s" s="59">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5472,13 +5339,13 @@
       <c r="C7" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="105" t="s">
+      <c r="D7" t="s" s="110">
         <v>214</v>
       </c>
-      <c r="E7" s="106" t="s">
+      <c r="E7" t="s" s="111">
         <v>215</v>
       </c>
-      <c r="F7" s="107" t="s">
+      <c r="F7" t="s" s="112">
         <v>216</v>
       </c>
       <c r="G7" t="s">
@@ -5490,17 +5357,17 @@
       <c r="I7" t="s">
         <v>219</v>
       </c>
-      <c r="J7" s="108" t="s">
+      <c r="J7" t="s" s="113">
         <v>220</v>
       </c>
-      <c r="K7" s="109" t="s">
+      <c r="K7" t="s" s="114">
         <v>66</v>
       </c>
       <c r="L7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8">
       <c r="E8" t="s">
         <v>222</v>
       </c>
@@ -5527,45 +5394,44 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="55" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="60">
         <v>44</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" t="s" s="61">
         <v>45</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" t="s" s="62">
         <v>9</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" t="s" s="63">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="E4" s="59" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="64">
         <v>47</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" t="s" s="65">
         <v>48</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" t="s" s="66">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5575,13 +5441,13 @@
       <c r="C7" t="s">
         <v>227</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" t="s" s="115">
         <v>228</v>
       </c>
-      <c r="E7" s="111" t="s">
+      <c r="E7" t="s" s="116">
         <v>229</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" t="s" s="117">
         <v>230</v>
       </c>
       <c r="G7" t="s">
@@ -5599,50 +5465,49 @@
       <c r="K7" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="113" t="s">
+      <c r="L7" t="s" s="118">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="62" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="67">
         <v>44</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" t="s" s="68">
         <v>45</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" t="s" s="69">
         <v>9</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" t="s" s="70">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="E4" s="66" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="71">
         <v>47</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" t="s" s="72">
         <v>48</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" t="s" s="73">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5652,16 +5517,16 @@
       <c r="C7" t="s">
         <v>235</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" t="s" s="119">
         <v>236</v>
       </c>
-      <c r="E7" s="115" t="s">
+      <c r="E7" t="s" s="120">
         <v>237</v>
       </c>
-      <c r="F7" s="116" t="s">
+      <c r="F7" t="s" s="121">
         <v>66</v>
       </c>
-      <c r="G7" s="117" t="s">
+      <c r="G7" t="s" s="122">
         <v>238</v>
       </c>
       <c r="H7" t="s">
@@ -5671,7 +5536,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8">
       <c r="E8" t="s">
         <v>240</v>
       </c>
@@ -5688,7 +5553,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9">
       <c r="E9" t="s">
         <v>241</v>
       </c>
@@ -5705,7 +5570,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10">
       <c r="E10" t="s">
         <v>243</v>
       </c>
@@ -5722,7 +5587,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11">
       <c r="E11" t="s">
         <v>244</v>
       </c>
@@ -5739,7 +5604,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12">
       <c r="E12" t="s">
         <v>245</v>
       </c>
@@ -5756,7 +5621,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13">
       <c r="E13" t="s">
         <v>247</v>
       </c>
@@ -5773,7 +5638,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14">
       <c r="E14" t="s">
         <v>248</v>
       </c>
@@ -5790,7 +5655,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15">
       <c r="E15" t="s">
         <v>250</v>
       </c>
@@ -5807,7 +5672,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16">
       <c r="E16" t="s">
         <v>251</v>
       </c>
@@ -5824,7 +5689,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17">
       <c r="E17" t="s">
         <v>253</v>
       </c>
@@ -5841,7 +5706,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18">
       <c r="E18" t="s">
         <v>254</v>
       </c>
@@ -5858,7 +5723,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -5868,35 +5733,34 @@
       <c r="C20" t="s">
         <v>255</v>
       </c>
-      <c r="D20" s="118" t="s">
+      <c r="D20" t="s" s="123">
         <v>256</v>
       </c>
-      <c r="E20" s="119" t="s">
+      <c r="E20" t="s" s="124">
         <v>257</v>
       </c>
-      <c r="F20" s="120" t="s">
+      <c r="F20" t="s" s="125">
         <v>258</v>
       </c>
-      <c r="G20" s="121" t="s">
+      <c r="G20" t="s" s="126">
         <v>230</v>
       </c>
       <c r="H20" t="s">
         <v>259</v>
       </c>
-      <c r="I20" s="122" t="s">
+      <c r="I20" t="s" s="127">
         <v>260</v>
       </c>
       <c r="J20" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21">
       <c r="E21" t="s">
         <v>262</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F21">
         <f>发送配置!$E$18</f>
-        <v>hmsg_template_server-18</v>
       </c>
       <c r="G21" t="s">
         <v>263</v>
@@ -5904,18 +5768,16 @@
       <c r="H21" t="s">
         <v>200</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21">
         <f>邮箱服务配置!$E$10</f>
-        <v>hmsg_email_server-10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+      </c>
+    </row>
+    <row r="22">
       <c r="E22" t="s">
         <v>264</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F22">
         <f>发送配置!$E$14</f>
-        <v>hmsg_template_server-14</v>
       </c>
       <c r="G22" t="s">
         <v>263</v>
@@ -5923,18 +5785,16 @@
       <c r="H22" t="s">
         <v>178</v>
       </c>
-      <c r="I22" t="str">
+      <c r="I22">
         <f>邮箱服务配置!$E$10</f>
-        <v>hmsg_email_server-10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+      </c>
+    </row>
+    <row r="23">
       <c r="E23" t="s">
         <v>265</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F23">
         <f>发送配置!$E$11</f>
-        <v>hmsg_template_server-11</v>
       </c>
       <c r="G23" t="s">
         <v>263</v>
@@ -5942,18 +5802,16 @@
       <c r="H23" t="s">
         <v>159</v>
       </c>
-      <c r="I23" t="str">
+      <c r="I23">
         <f>邮箱服务配置!$E$10</f>
-        <v>hmsg_email_server-10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+      </c>
+    </row>
+    <row r="24">
       <c r="E24" t="s">
         <v>266</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F24">
         <f>发送配置!$E$15</f>
-        <v>hmsg_template_server-15</v>
       </c>
       <c r="G24" t="s">
         <v>263</v>
@@ -5961,18 +5819,16 @@
       <c r="H24" t="s">
         <v>185</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I24">
         <f>邮箱服务配置!$E$10</f>
-        <v>hmsg_email_server-10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+      </c>
+    </row>
+    <row r="25">
       <c r="E25" t="s">
         <v>267</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F25">
         <f>发送配置!$E$10</f>
-        <v>hmsg_template_server-10</v>
       </c>
       <c r="G25" t="s">
         <v>263</v>
@@ -5980,18 +5836,16 @@
       <c r="H25" t="s">
         <v>152</v>
       </c>
-      <c r="I25" t="str">
+      <c r="I25">
         <f>邮箱服务配置!$E$10</f>
-        <v>hmsg_email_server-10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+      </c>
+    </row>
+    <row r="26">
       <c r="E26" t="s">
         <v>268</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F26">
         <f>发送配置!$E$9</f>
-        <v>hmsg_template_server-9</v>
       </c>
       <c r="G26" t="s">
         <v>263</v>
@@ -5999,12 +5853,11 @@
       <c r="H26" t="s">
         <v>146</v>
       </c>
-      <c r="I26" t="str">
+      <c r="I26">
         <f>邮箱服务配置!$E$10</f>
-        <v>hmsg_email_server-10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -6014,35 +5867,34 @@
       <c r="C28" t="s">
         <v>269</v>
       </c>
-      <c r="D28" s="123" t="s">
+      <c r="D28" t="s" s="128">
         <v>256</v>
       </c>
-      <c r="E28" s="124" t="s">
+      <c r="E28" t="s" s="129">
         <v>257</v>
       </c>
-      <c r="F28" s="125" t="s">
+      <c r="F28" t="s" s="130">
         <v>258</v>
       </c>
-      <c r="G28" s="126" t="s">
+      <c r="G28" t="s" s="131">
         <v>230</v>
       </c>
       <c r="H28" t="s">
         <v>259</v>
       </c>
-      <c r="I28" s="127" t="s">
+      <c r="I28" t="s" s="132">
         <v>260</v>
       </c>
       <c r="J28" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29">
       <c r="E29" t="s">
         <v>270</v>
       </c>
-      <c r="F29" t="str">
+      <c r="F29">
         <f>发送配置!$E$8</f>
-        <v>hmsg_template_server-8</v>
       </c>
       <c r="G29" t="s">
         <v>271</v>
@@ -6050,18 +5902,16 @@
       <c r="H29" t="s">
         <v>140</v>
       </c>
-      <c r="I29" t="str">
+      <c r="I29">
         <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+      </c>
+    </row>
+    <row r="30">
       <c r="E30" t="s">
         <v>272</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F30">
         <f>发送配置!$E$18</f>
-        <v>hmsg_template_server-18</v>
       </c>
       <c r="G30" t="s">
         <v>271</v>
@@ -6069,18 +5919,16 @@
       <c r="H30" t="s">
         <v>200</v>
       </c>
-      <c r="I30" t="str">
+      <c r="I30">
         <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+      </c>
+    </row>
+    <row r="31">
       <c r="E31" t="s">
         <v>273</v>
       </c>
-      <c r="F31" t="str">
+      <c r="F31">
         <f>发送配置!$E$14</f>
-        <v>hmsg_template_server-14</v>
       </c>
       <c r="G31" t="s">
         <v>271</v>
@@ -6088,18 +5936,16 @@
       <c r="H31" t="s">
         <v>178</v>
       </c>
-      <c r="I31" t="str">
+      <c r="I31">
         <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+      </c>
+    </row>
+    <row r="32">
       <c r="E32" t="s">
         <v>274</v>
       </c>
-      <c r="F32" t="str">
+      <c r="F32">
         <f>发送配置!$E$13</f>
-        <v>hmsg_template_server-13</v>
       </c>
       <c r="G32" t="s">
         <v>271</v>
@@ -6107,18 +5953,16 @@
       <c r="H32" t="s">
         <v>173</v>
       </c>
-      <c r="I32" t="str">
+      <c r="I32">
         <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9">
+      </c>
+    </row>
+    <row r="33">
       <c r="E33" t="s">
         <v>275</v>
       </c>
-      <c r="F33" t="str">
+      <c r="F33">
         <f>发送配置!$E$16</f>
-        <v>hmsg_template_server-16</v>
       </c>
       <c r="G33" t="s">
         <v>271</v>
@@ -6126,18 +5970,16 @@
       <c r="H33" t="s">
         <v>189</v>
       </c>
-      <c r="I33" t="str">
+      <c r="I33">
         <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9">
+      </c>
+    </row>
+    <row r="34">
       <c r="E34" t="s">
         <v>276</v>
       </c>
-      <c r="F34" t="str">
+      <c r="F34">
         <f>发送配置!$E$10</f>
-        <v>hmsg_template_server-10</v>
       </c>
       <c r="G34" t="s">
         <v>271</v>
@@ -6145,18 +5987,16 @@
       <c r="H34" t="s">
         <v>152</v>
       </c>
-      <c r="I34" t="str">
+      <c r="I34">
         <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9">
+      </c>
+    </row>
+    <row r="35">
       <c r="E35" t="s">
         <v>277</v>
       </c>
-      <c r="F35" t="str">
+      <c r="F35">
         <f>发送配置!$E$9</f>
-        <v>hmsg_template_server-9</v>
       </c>
       <c r="G35" t="s">
         <v>271</v>
@@ -6164,51 +6004,49 @@
       <c r="H35" t="s">
         <v>146</v>
       </c>
-      <c r="I35" t="str">
+      <c r="I35">
         <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="69" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="74">
         <v>44</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" t="s" s="75">
         <v>45</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" t="s" s="76">
         <v>9</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" t="s" s="77">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="E4" s="73" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="78">
         <v>47</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" t="s" s="79">
         <v>48</v>
       </c>
-      <c r="G4" s="75" t="s">
+      <c r="G4" t="s" s="80">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -6218,13 +6056,13 @@
       <c r="C7" t="s">
         <v>278</v>
       </c>
-      <c r="D7" s="128" t="s">
+      <c r="D7" t="s" s="133">
         <v>279</v>
       </c>
-      <c r="E7" s="129" t="s">
+      <c r="E7" t="s" s="134">
         <v>54</v>
       </c>
-      <c r="F7" s="130" t="s">
+      <c r="F7" t="s" s="135">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -6248,50 +6086,49 @@
       <c r="M7" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="131" t="s">
+      <c r="N7" t="s" s="136">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="76" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="81">
         <v>44</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" t="s" s="82">
         <v>45</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" t="s" s="84">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="E4" s="80" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="85">
         <v>47</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" t="s" s="86">
         <v>48</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" t="s" s="87">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -6301,13 +6138,13 @@
       <c r="C7" t="s">
         <v>285</v>
       </c>
-      <c r="D7" s="132" t="s">
+      <c r="D7" t="s" s="137">
         <v>286</v>
       </c>
-      <c r="E7" s="133" t="s">
+      <c r="E7" t="s" s="138">
         <v>54</v>
       </c>
-      <c r="F7" s="134" t="s">
+      <c r="F7" t="s" s="139">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -6328,13 +6165,11 @@
       <c r="L7" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="135" t="s">
+      <c r="M7" t="s" s="140">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="265">
   <si>
     <r>
       <rPr>
@@ -2002,7 +2002,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-03-12</t>
+    <t>2020-05-29</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2056,13 +2056,13 @@
     <t>hmsg_email_server-8</t>
   </si>
   <si>
-    <t>HWFP.MAIL-APPROVED-SEND</t>
-  </si>
-  <si>
-    <t>工作流邮件审批发送</t>
-  </si>
-  <si>
-    <t>smtphm.qiye.163.com</t>
+    <t>HZERO</t>
+  </si>
+  <si>
+    <t>平台默认发送配置</t>
+  </si>
+  <si>
+    <t>smtp.163.com</t>
   </si>
   <si>
     <t>25</t>
@@ -2074,10 +2074,10 @@
     <t>3</t>
   </si>
   <si>
-    <t>chao.zhang06@hand-china.com</t>
-  </si>
-  <si>
-    <t>WXu/wxxU8yrlEJdUCF7zqA==</t>
+    <t>******</t>
+  </si>
+  <si>
+    <t>eg:hzero@163.com</t>
   </si>
   <si>
     <t>1</t>
@@ -2086,60 +2086,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>hmsg_email_server-9</t>
-  </si>
-  <si>
-    <t>HWFP.RECEIVER</t>
-  </si>
-  <si>
-    <t>工作流邮件接收-POP3</t>
-  </si>
-  <si>
-    <t>pophm.qiye.163.com</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>pop3</t>
-  </si>
-  <si>
-    <t>hmsg_email_server-10</t>
-  </si>
-  <si>
-    <t>HZERO</t>
-  </si>
-  <si>
-    <t>平台默认发送配置</t>
-  </si>
-  <si>
-    <t>smtp.163.com</t>
-  </si>
-  <si>
-    <t>handtester@163.com</t>
-  </si>
-  <si>
-    <t>W3G/lJBGEhHSsSU8iTHPMA==</t>
-  </si>
-  <si>
-    <t>hmsg_email_server-11</t>
-  </si>
-  <si>
-    <t>HZERO.RECEIVER</t>
-  </si>
-  <si>
-    <t>平台默认接收配置</t>
-  </si>
-  <si>
-    <t>eg:pophm.qiye.163.com</t>
-  </si>
-  <si>
-    <t>eg:hzero@163.com</t>
-  </si>
-  <si>
-    <t>JJKLOq7CLWLBmo0IbFwLww==</t>
-  </si>
-  <si>
     <t>邮箱服务配置</t>
   </si>
   <si>
@@ -2191,42 +2137,9 @@
     <t>http://sms.bj.baidubce.com</t>
   </si>
   <si>
-    <t>3365efebed0349f0a2bbd7bfed98d317</t>
-  </si>
-  <si>
-    <t>Kd1qOr+WhQvLiJngbwygq6k5lx4dMG7rmCV+pZau/Yjl5bsRtVc+rRdMYvec1x1u</t>
-  </si>
-  <si>
-    <t>g7ZxneIF-lJd9-GcmB</t>
-  </si>
-  <si>
     <t>hmsg_sms_server-9</t>
   </si>
   <si>
-    <t>HZERO_ALIYUN</t>
-  </si>
-  <si>
-    <t>阿里云短信服务</t>
-  </si>
-  <si>
-    <t>ALIYUN</t>
-  </si>
-  <si>
-    <t>cn-hangzhou</t>
-  </si>
-  <si>
-    <t>LTAIBD78TBq8nWd9</t>
-  </si>
-  <si>
-    <t>qCoyiGP/VuRKlwbiofPz3s3zs83nKWtFKMq320KCOmU=</t>
-  </si>
-  <si>
-    <t>上海甄云信息科技有限公司</t>
-  </si>
-  <si>
-    <t>hmsg_sms_server-10</t>
-  </si>
-  <si>
     <t>HZERO_BAIDU</t>
   </si>
   <si>
@@ -2278,11 +2191,10 @@
     <t>验证码</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;您的验证码为${captcha}，请您妥善保管，该验证码5分钟内有效，请勿泄漏于他人！&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>smsTpl:ce141104-2cd2-4430-b2cf-a019767a3d75</t>
+    <t>&lt;p&gt;您的验证码为${captcha}，请您妥善保管，该验证码5分钟内有效，请勿泄漏于他人！&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>smsTpl:8d3cb694-fb20-46b7-80f3-0bbee144c467</t>
   </si>
   <si>
     <t>zh_CN</t>
@@ -2300,11 +2212,10 @@
     <t>账号创建成功</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;【HZERO】已为您创建账号[${loginName}]，初始密码为[${password}]。您可使用该账号密码登录云平台，地址：${indexUrl}，登录后请及时修改初始密码。&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>smsTpl:e407930a-1afa-4796-a095-ec9f7f679d7b</t>
+    <t>&lt;p&gt;【HZERO】已为您创建账号[${loginName}]，初始密码为[${password}]。您可使用该账号密码登录云平台，地址：${indexUrl}，登录后请及时修改初始密码。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>smsTpl:d6514199-443b-4684-a874-35bbeb662400</t>
   </si>
   <si>
     <t>hmsg_message_template-10</t>
@@ -2316,8 +2227,7 @@
     <t>找回密码</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;【HZERO】您正在找回登录密码，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;
-</t>
+    <t>&lt;p&gt;【HZERO】您正在找回登录密码，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
   </si>
   <si>
     <t>SYSTEM</t>
@@ -2326,7 +2236,7 @@
     <t>LI</t>
   </si>
   <si>
-    <t>smsTpl:c6fdd238-e77a-42c8-abbb-868ef801ae9e</t>
+    <t>smsTpl:ebdac3a2-0c67-4944-b15e-3595d96e5d6b</t>
   </si>
   <si>
     <t>hmsg_message_template-11</t>
@@ -2353,8 +2263,7 @@
     <t>正在修改登录密码</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;验证码${captcha}已发送至您的邮箱，请在五分钟内进行验证【Hzero】&lt;/p&gt;
-</t>
+    <t>&lt;p&gt;验证码${captcha}已发送至您的邮箱，请在五分钟内进行验证【Hzero】&lt;/p&gt;</t>
   </si>
   <si>
     <t>smsTpl:2c665b32-37b2-4aad-91d3-c039b631be09</t>
@@ -2381,11 +2290,10 @@
     <t>修改手机号</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;【HZERO】您正在修改新手机号，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>smsTpl:56afc4fb-6a4b-4679-b490-10adb5209f5e</t>
+    <t>&lt;p&gt;【HZERO】您正在修改新手机号，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>smsTpl:41dab45c-bee8-44c3-87cd-900821ca748a</t>
   </si>
   <si>
     <t>hmsg_message_template-15</t>
@@ -2400,14 +2308,13 @@
     <t>账号注册</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;【HZERO】您正在注册账号，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;
-</t>
+    <t>&lt;p&gt;【HZERO】您正在注册账号，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
   </si>
   <si>
     <t>UR</t>
   </si>
   <si>
-    <t>smsTpl:e8d1cc7f-b966-4bbd-8674-693e5f6a665d</t>
+    <t>smsTpl:6f2ec043-687b-43dc-a231-53487467fe76</t>
   </si>
   <si>
     <t>hmsg_message_template-16</t>
@@ -2431,11 +2338,7 @@
     <t>验证手机号</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;【HZERO】您正在验证手机号，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>smsTpl:1edda028-1ad9-407d-9a1e-893779f945f0</t>
+    <t>&lt;p&gt;【HZERO】您正在验证手机号，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-18</t>
@@ -2450,11 +2353,10 @@
     <t>短信登录</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;您正在【HZERO】，登录验证码：${captcha}，该验证码5分钟内有效，请勿泄漏于他人！&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>smsTpl:e7476122a1c24e37b3b0de19d04ae901</t>
+    <t>&lt;p&gt;您正在【HZERO】，登录验证码：${captcha}，该验证码5分钟内有效，请勿泄漏于他人！&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>smsTpl:1964a961-d23c-4c84-a9e2-1f984f416901</t>
   </si>
   <si>
     <t>hmsg_message_template-19</t>
@@ -2466,8 +2368,10 @@
     <t>修改登录密码获取验证码</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;您正在修改密码，验证码：【${captcha}】，请在5分钟内完成验证！&lt;/p&gt;
-</t>
+    <t>&lt;p&gt;您正在修改密码，验证码：【${captcha}】，请在5分钟内完成验证！&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>smsTpl:19cb73e9-0eb9-411d-a316-c2996eb90e9c</t>
   </si>
   <si>
     <t>消息模板参数</t>
@@ -2647,6 +2551,9 @@
     <t>remark</t>
   </si>
   <si>
+    <t>server_code</t>
+  </si>
+  <si>
     <t>hmsg_template_server_line-21</t>
   </si>
   <si>
@@ -2693,6 +2600,18 @@
   </si>
   <si>
     <t>hmsg_template_server_line-35</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-36</t>
+  </si>
+  <si>
+    <t>发送配置(其它)</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-39</t>
+  </si>
+  <si>
+    <t>WEB</t>
   </si>
   <si>
     <t>微信企业号配置</t>
@@ -2733,7 +2652,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="127">
+  <fonts count="131">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3355,6 +3274,26 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3535,7 +3474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3711,6 +3650,10 @@
     <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4296,7 +4239,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4406,10 +4349,10 @@
         <v>74</v>
       </c>
       <c r="M8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" t="s">
         <v>75</v>
-      </c>
-      <c r="N8" t="s">
-        <v>74</v>
       </c>
       <c r="O8" t="s">
         <v>76</v>
@@ -4418,146 +4361,32 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9">
-      <c r="E9" t="s">
+    <row r="10">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
         <v>78</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D10" t="s" s="92">
         <v>79</v>
       </c>
-      <c r="G9" t="s">
+      <c r="E10" t="s" s="93">
         <v>80</v>
       </c>
-      <c r="H9" t="s">
+      <c r="F10" t="s" s="94">
         <v>81</v>
       </c>
-      <c r="I9" t="s">
+      <c r="G10" t="s" s="95">
         <v>82</v>
       </c>
-      <c r="J9" t="s">
+      <c r="H10" t="s">
         <v>83</v>
       </c>
-      <c r="K9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" t="s">
-        <v>75</v>
-      </c>
-      <c r="N9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" t="s">
-        <v>89</v>
-      </c>
-      <c r="N10" t="s">
-        <v>88</v>
-      </c>
-      <c r="O10" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" t="s">
-        <v>94</v>
-      </c>
-      <c r="M11" t="s">
-        <v>95</v>
-      </c>
-      <c r="N11" t="s">
-        <v>94</v>
-      </c>
-      <c r="O11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" t="s" s="92">
-        <v>97</v>
-      </c>
-      <c r="E13" t="s" s="93">
-        <v>98</v>
-      </c>
-      <c r="F13" t="s" s="94">
-        <v>99</v>
-      </c>
-      <c r="G13" t="s" s="95">
-        <v>100</v>
-      </c>
-      <c r="H13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" t="s" s="96">
+      <c r="I10" t="s" s="96">
         <v>66</v>
       </c>
     </row>
@@ -4568,7 +4397,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4607,10 +4436,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s" s="97">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s" s="98">
         <v>54</v>
@@ -4622,19 +4451,19 @@
         <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
         <v>64</v>
@@ -4645,28 +4474,28 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="M8" t="s">
         <v>76</v>
@@ -4677,65 +4506,33 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="H9" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="I9" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="L9" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="M9" t="s">
         <v>76</v>
       </c>
       <c r="N9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" t="s">
-        <v>111</v>
-      </c>
-      <c r="I10" t="s">
-        <v>112</v>
-      </c>
-      <c r="J10" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" t="s">
-        <v>115</v>
-      </c>
-      <c r="M10" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4785,40 +4582,40 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s" s="101">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s" s="102">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s" s="103">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="J7" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="L7" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="M7" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="N7" t="s" s="104">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="O7" t="s">
         <v>64</v>
@@ -4829,25 +4626,25 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="H8" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="I8" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="N8" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
         <v>76</v>
@@ -4858,25 +4655,25 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="H9" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="I9" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="N9" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
         <v>76</v>
@@ -4887,31 +4684,31 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="F10" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="N10" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
         <v>76</v>
@@ -4922,28 +4719,28 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="H11" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="I11" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="N11" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
         <v>76</v>
@@ -4954,25 +4751,25 @@
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="H12" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="I12" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="N12" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
         <v>76</v>
@@ -4983,22 +4780,22 @@
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="F13" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="H13" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="I13" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s">
         <v>76</v>
@@ -5009,31 +4806,31 @@
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="H14" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="I14" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="O14" t="s">
         <v>76</v>
@@ -5044,31 +4841,31 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="F15" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="H15" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="I15" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="K15" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="O15" t="s">
         <v>76</v>
@@ -5079,22 +4876,22 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="F16" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="H16" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="I16" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="O16" t="s">
         <v>76</v>
@@ -5105,25 +4902,25 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="H17" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="I17" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="N17" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="O17" t="s">
         <v>76</v>
@@ -5134,25 +4931,25 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="F18" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="H18" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="I18" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="N18" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="O18" t="s">
         <v>76</v>
@@ -5163,25 +4960,25 @@
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="F19" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="H19" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="I19" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="N19" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="O19" t="s">
         <v>76</v>
@@ -5198,97 +4995,97 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="D21" t="s" s="106">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="E21" t="s" s="107">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="F21" t="s" s="108">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="G21" t="s" s="109">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="H21" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="F22">
         <f>消息模板!$E$8</f>
       </c>
       <c r="G22" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="H22" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="I22" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="F23">
-        <f>消息模板!$E$12</f>
+        <f>消息模板!$E$10</f>
       </c>
       <c r="G23" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="F24">
-        <f>消息模板!$E$18</f>
+        <f>消息模板!$E$11</f>
       </c>
       <c r="G24" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="F25">
-        <f>消息模板!$E$11</f>
+        <f>消息模板!$E$12</f>
       </c>
       <c r="G25" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="F26">
         <f>消息模板!$E$14</f>
       </c>
       <c r="G26" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="F27">
-        <f>消息模板!$E$10</f>
+        <f>消息模板!$E$18</f>
       </c>
       <c r="G27" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5337,51 +5134,51 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="D7" t="s" s="110">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s" s="111">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="F7" t="s" s="112">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="G7" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="H7" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="I7" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="J7" t="s" s="113">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="K7" t="s" s="114">
         <v>66</v>
       </c>
       <c r="L7" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="G8" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="H8" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="I8" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="J8" t="s">
         <v>77</v>
@@ -5439,28 +5236,28 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="D7" t="s" s="115">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="E7" t="s" s="116">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s" s="117">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="G7" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="H7" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="I7" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="J7" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
@@ -5476,7 +5273,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5515,22 +5312,22 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="D7" t="s" s="119">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="E7" t="s" s="120">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="F7" t="s" s="121">
         <v>66</v>
       </c>
       <c r="G7" t="s" s="122">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="H7" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="I7" t="s">
         <v>64</v>
@@ -5538,16 +5335,16 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="H8" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="I8" t="s">
         <v>76</v>
@@ -5555,16 +5352,16 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="F9" t="s">
         <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="H9" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="I9" t="s">
         <v>76</v>
@@ -5572,16 +5369,16 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="F10" t="s">
         <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="H10" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
         <v>76</v>
@@ -5589,16 +5386,16 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="H11" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="I11" t="s">
         <v>76</v>
@@ -5606,16 +5403,16 @@
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="H12" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="I12" t="s">
         <v>76</v>
@@ -5623,16 +5420,16 @@
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="H13" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="I13" t="s">
         <v>76</v>
@@ -5640,16 +5437,16 @@
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="H14" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="I14" t="s">
         <v>76</v>
@@ -5657,16 +5454,16 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="F15" t="s">
         <v>77</v>
       </c>
       <c r="G15" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="H15" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="I15" t="s">
         <v>76</v>
@@ -5674,16 +5471,16 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="H16" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="I16" t="s">
         <v>76</v>
@@ -5691,16 +5488,16 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="F17" t="s">
         <v>77</v>
       </c>
       <c r="G17" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="H17" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="I17" t="s">
         <v>76</v>
@@ -5708,16 +5505,16 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="F18" t="s">
         <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="H18" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="I18" t="s">
         <v>76</v>
@@ -5731,130 +5528,151 @@
         <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="D20" t="s" s="123">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="E20" t="s" s="124">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="F20" t="s" s="125">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="G20" t="s" s="126">
+        <v>201</v>
+      </c>
+      <c r="H20" t="s">
         <v>230</v>
       </c>
-      <c r="H20" t="s">
-        <v>259</v>
-      </c>
       <c r="I20" t="s" s="127">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="J20" t="s">
-        <v>261</v>
+        <v>232</v>
+      </c>
+      <c r="K20" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="F21">
         <f>发送配置!$E$18</f>
       </c>
       <c r="G21" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="H21" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="I21">
-        <f>邮箱服务配置!$E$10</f>
+        <f>邮箱服务配置!$E$8</f>
+      </c>
+      <c r="K21" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="F22">
         <f>发送配置!$E$14</f>
       </c>
       <c r="G22" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="H22" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I22">
-        <f>邮箱服务配置!$E$10</f>
+        <f>邮箱服务配置!$E$8</f>
+      </c>
+      <c r="K22" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="F23">
         <f>发送配置!$E$11</f>
       </c>
       <c r="G23" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="H23" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="I23">
-        <f>邮箱服务配置!$E$10</f>
+        <f>邮箱服务配置!$E$8</f>
+      </c>
+      <c r="K23" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="F24">
         <f>发送配置!$E$15</f>
       </c>
       <c r="G24" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="H24" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="I24">
-        <f>邮箱服务配置!$E$10</f>
+        <f>邮箱服务配置!$E$8</f>
+      </c>
+      <c r="K24" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="F25">
         <f>发送配置!$E$10</f>
       </c>
       <c r="G25" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="H25" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="I25">
-        <f>邮箱服务配置!$E$10</f>
+        <f>邮箱服务配置!$E$8</f>
+      </c>
+      <c r="K25" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="F26">
         <f>发送配置!$E$9</f>
       </c>
       <c r="G26" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="H26" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="I26">
-        <f>邮箱服务配置!$E$10</f>
+        <f>邮箱服务配置!$E$8</f>
+      </c>
+      <c r="K26" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -5865,147 +5683,237 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="D28" t="s" s="128">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="E28" t="s" s="129">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="F28" t="s" s="130">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="G28" t="s" s="131">
+        <v>201</v>
+      </c>
+      <c r="H28" t="s">
         <v>230</v>
       </c>
-      <c r="H28" t="s">
-        <v>259</v>
-      </c>
       <c r="I28" t="s" s="132">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="J28" t="s">
-        <v>261</v>
+        <v>232</v>
+      </c>
+      <c r="K28" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="F29">
         <f>发送配置!$E$8</f>
       </c>
       <c r="G29" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="H29" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="I29">
         <f>短信服务配置!$E$8</f>
       </c>
+      <c r="K29" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="F30">
         <f>发送配置!$E$18</f>
       </c>
       <c r="G30" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="H30" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="I30">
         <f>短信服务配置!$E$8</f>
       </c>
+      <c r="K30" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="F31">
         <f>发送配置!$E$14</f>
       </c>
       <c r="G31" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="H31" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I31">
         <f>短信服务配置!$E$8</f>
       </c>
+      <c r="K31" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="F32">
         <f>发送配置!$E$13</f>
       </c>
       <c r="G32" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="H32" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="I32">
         <f>短信服务配置!$E$8</f>
       </c>
+      <c r="K32" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="F33">
         <f>发送配置!$E$16</f>
       </c>
       <c r="G33" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="H33" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="I33">
         <f>短信服务配置!$E$8</f>
       </c>
+      <c r="K33" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="F34">
         <f>发送配置!$E$10</f>
       </c>
       <c r="G34" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="H34" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="I34">
         <f>短信服务配置!$E$8</f>
       </c>
+      <c r="K34" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="F35">
         <f>发送配置!$E$9</f>
       </c>
       <c r="G35" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="H35" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="I35">
         <f>短信服务配置!$E$8</f>
+      </c>
+      <c r="K35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36">
+        <f>发送配置!$E$17</f>
+      </c>
+      <c r="G36" t="s">
+        <v>243</v>
+      </c>
+      <c r="H36" t="s">
+        <v>164</v>
+      </c>
+      <c r="K36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>251</v>
+      </c>
+      <c r="D38" t="s" s="133">
+        <v>227</v>
+      </c>
+      <c r="E38" t="s" s="134">
+        <v>228</v>
+      </c>
+      <c r="F38" t="s" s="135">
+        <v>229</v>
+      </c>
+      <c r="G38" t="s" s="136">
+        <v>201</v>
+      </c>
+      <c r="H38" t="s">
+        <v>230</v>
+      </c>
+      <c r="I38" t="s">
+        <v>231</v>
+      </c>
+      <c r="J38" t="s">
+        <v>232</v>
+      </c>
+      <c r="K38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>252</v>
+      </c>
+      <c r="F39">
+        <f>发送配置!$E$12</f>
+      </c>
+      <c r="G39" t="s">
+        <v>253</v>
+      </c>
+      <c r="H39" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -6054,39 +5962,39 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>278</v>
-      </c>
-      <c r="D7" t="s" s="133">
-        <v>279</v>
-      </c>
-      <c r="E7" t="s" s="134">
+        <v>254</v>
+      </c>
+      <c r="D7" t="s" s="137">
+        <v>255</v>
+      </c>
+      <c r="E7" t="s" s="138">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="135">
+      <c r="F7" t="s" s="139">
         <v>55</v>
       </c>
       <c r="G7" t="s">
         <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="I7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="J7" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="K7" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="L7" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="M7" t="s">
         <v>64</v>
       </c>
-      <c r="N7" t="s" s="136">
+      <c r="N7" t="s" s="140">
         <v>66</v>
       </c>
     </row>
@@ -6136,36 +6044,36 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
-      </c>
-      <c r="D7" t="s" s="137">
-        <v>286</v>
-      </c>
-      <c r="E7" t="s" s="138">
+        <v>261</v>
+      </c>
+      <c r="D7" t="s" s="141">
+        <v>262</v>
+      </c>
+      <c r="E7" t="s" s="142">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="139">
+      <c r="F7" t="s" s="143">
         <v>55</v>
       </c>
       <c r="G7" t="s">
         <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="I7" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="J7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="K7" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="L7" t="s">
         <v>64</v>
       </c>
-      <c r="M7" t="s" s="140">
+      <c r="M7" t="s" s="144">
         <v>66</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message.xlsx
@@ -1977,7 +1977,7 @@
     <t>ISSUECREATE</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>defaultValue</t>
   </si>
   <si>
     <t>1</t>
@@ -2034,9 +2034,6 @@
     <t>GITLABCONTINUOUSDELIVERYFAILURE</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>notify_message_setting-23</t>
   </si>
   <si>
@@ -2083,6 +2080,9 @@
   </si>
   <si>
     <t>DELETEAPPSERVICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> defaultValue</t>
   </si>
   <si>
     <t>notify_message_setting_target</t>
@@ -2209,7 +2209,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2279,20 +2279,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2303,6 +2289,13 @@
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2317,6 +2310,73 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2347,52 +2407,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2409,27 +2424,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2456,13 +2450,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -2475,12 +2462,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2524,13 +2505,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2548,85 +2613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2644,31 +2637,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2680,31 +2679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2837,30 +2818,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2900,6 +2857,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2911,151 +2892,151 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3762,11 +3743,14 @@
   <sheetPr/>
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <cols>
+    <col min="10" max="10" width="19.0833333333333" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -4233,7 +4217,7 @@
         <v>66</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s">
         <v>82</v>
@@ -4244,13 +4228,13 @@
     </row>
     <row r="23" spans="5:12">
       <c r="E23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" t="s">
         <v>88</v>
       </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H23" t="s">
         <v>66</v>
@@ -4270,13 +4254,13 @@
     </row>
     <row r="24" spans="5:12">
       <c r="E24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F24" t="s">
         <v>88</v>
       </c>
       <c r="G24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H24" t="s">
         <v>66</v>
@@ -4296,13 +4280,13 @@
     </row>
     <row r="25" spans="5:12">
       <c r="E25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F25" t="s">
         <v>88</v>
       </c>
       <c r="G25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H25" t="s">
         <v>66</v>
@@ -4322,13 +4306,13 @@
     </row>
     <row r="26" spans="5:12">
       <c r="E26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
         <v>88</v>
       </c>
       <c r="G26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H26" t="s">
         <v>66</v>
@@ -4348,13 +4332,13 @@
     </row>
     <row r="27" spans="5:12">
       <c r="E27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F27" t="s">
         <v>88</v>
       </c>
       <c r="G27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H27" t="s">
         <v>66</v>
@@ -4374,13 +4358,13 @@
     </row>
     <row r="28" spans="5:12">
       <c r="E28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F28" t="s">
         <v>88</v>
       </c>
       <c r="G28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H28" t="s">
         <v>66</v>
@@ -4400,13 +4384,13 @@
     </row>
     <row r="29" spans="5:12">
       <c r="E29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H29" t="s">
         <v>66</v>
@@ -4426,22 +4410,22 @@
     </row>
     <row r="30" spans="5:12">
       <c r="E30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F30" t="s">
         <v>88</v>
       </c>
       <c r="G30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" t="s">
         <v>116</v>
-      </c>
-      <c r="H30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" t="s">
-        <v>66</v>
-      </c>
-      <c r="J30" t="s">
-        <v>81</v>
       </c>
       <c r="K30" t="s">
         <v>82</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="154">
   <si>
     <r>
       <rPr>
@@ -2080,9 +2080,6 @@
   </si>
   <si>
     <t>DELETEAPPSERVICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> defaultValue</t>
   </si>
   <si>
     <t>notify_message_setting_target</t>
@@ -2204,10 +2201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2286,36 +2283,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2325,28 +2292,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2368,9 +2313,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2406,13 +2389,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2424,6 +2400,27 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2505,7 +2502,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2517,73 +2640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2595,25 +2652,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2631,61 +2676,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2792,12 +2789,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2818,25 +2828,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2892,148 +2889,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3743,8 +3740,8 @@
   <sheetPr/>
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -4425,7 +4422,7 @@
         <v>66</v>
       </c>
       <c r="J30" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s">
         <v>82</v>
@@ -4445,27 +4442,27 @@
         <v>52</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="33" spans="5:8">
       <c r="E33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" t="s">
         <v>121</v>
-      </c>
-      <c r="F33" t="s">
-        <v>122</v>
       </c>
       <c r="G33" t="s">
         <v>66</v>
@@ -4477,10 +4474,10 @@
     </row>
     <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G34" t="s">
         <v>66</v>
@@ -4492,10 +4489,10 @@
     </row>
     <row r="35" spans="5:8">
       <c r="E35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" t="s">
         <v>124</v>
-      </c>
-      <c r="F35" t="s">
-        <v>125</v>
       </c>
       <c r="G35" t="s">
         <v>66</v>
@@ -4507,10 +4504,10 @@
     </row>
     <row r="36" spans="5:8">
       <c r="E36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G36" t="s">
         <v>66</v>
@@ -4522,10 +4519,10 @@
     </row>
     <row r="37" spans="5:8">
       <c r="E37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G37" t="s">
         <v>66</v>
@@ -4537,10 +4534,10 @@
     </row>
     <row r="38" spans="5:8">
       <c r="E38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" t="s">
         <v>128</v>
-      </c>
-      <c r="F38" t="s">
-        <v>129</v>
       </c>
       <c r="G38" t="s">
         <v>66</v>
@@ -4552,10 +4549,10 @@
     </row>
     <row r="39" spans="5:8">
       <c r="E39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" t="s">
         <v>130</v>
-      </c>
-      <c r="F39" t="s">
-        <v>131</v>
       </c>
       <c r="G39" t="s">
         <v>66</v>
@@ -4567,10 +4564,10 @@
     </row>
     <row r="40" spans="5:8">
       <c r="E40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" t="s">
         <v>132</v>
-      </c>
-      <c r="F40" t="s">
-        <v>133</v>
       </c>
       <c r="G40" t="s">
         <v>66</v>
@@ -4582,10 +4579,10 @@
     </row>
     <row r="41" spans="5:8">
       <c r="E41" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" t="s">
         <v>134</v>
-      </c>
-      <c r="F41" t="s">
-        <v>135</v>
       </c>
       <c r="G41" t="s">
         <v>66</v>
@@ -4597,10 +4594,10 @@
     </row>
     <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G42" t="s">
         <v>66</v>
@@ -4612,10 +4609,10 @@
     </row>
     <row r="43" spans="5:8">
       <c r="E43" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" t="s">
         <v>137</v>
-      </c>
-      <c r="F43" t="s">
-        <v>138</v>
       </c>
       <c r="G43" t="s">
         <v>66</v>
@@ -4627,10 +4624,10 @@
     </row>
     <row r="44" spans="5:8">
       <c r="E44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G44" t="s">
         <v>66</v>
@@ -4642,10 +4639,10 @@
     </row>
     <row r="45" spans="5:8">
       <c r="E45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G45" t="s">
         <v>66</v>
@@ -4657,10 +4654,10 @@
     </row>
     <row r="46" spans="5:8">
       <c r="E46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G46" t="s">
         <v>66</v>
@@ -4672,10 +4669,10 @@
     </row>
     <row r="47" spans="5:8">
       <c r="E47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G47" t="s">
         <v>66</v>
@@ -4687,10 +4684,10 @@
     </row>
     <row r="48" spans="5:8">
       <c r="E48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G48" t="s">
         <v>66</v>
@@ -4702,10 +4699,10 @@
     </row>
     <row r="49" spans="5:8">
       <c r="E49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G49" t="s">
         <v>66</v>
@@ -4717,10 +4714,10 @@
     </row>
     <row r="50" spans="5:8">
       <c r="E50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G50" t="s">
         <v>66</v>
@@ -4732,10 +4729,10 @@
     </row>
     <row r="51" spans="5:8">
       <c r="E51" t="s">
+        <v>145</v>
+      </c>
+      <c r="F51" t="s">
         <v>146</v>
-      </c>
-      <c r="F51" t="s">
-        <v>147</v>
       </c>
       <c r="G51" t="s">
         <v>66</v>
@@ -4747,10 +4744,10 @@
     </row>
     <row r="52" spans="5:8">
       <c r="E52" t="s">
+        <v>147</v>
+      </c>
+      <c r="F52" t="s">
         <v>148</v>
-      </c>
-      <c r="F52" t="s">
-        <v>149</v>
       </c>
       <c r="G52" t="s">
         <v>66</v>
@@ -4762,10 +4759,10 @@
     </row>
     <row r="53" spans="5:8">
       <c r="E53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G53" t="s">
         <v>66</v>
@@ -4777,10 +4774,10 @@
     </row>
     <row r="54" spans="5:8">
       <c r="E54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G54" t="s">
         <v>66</v>
@@ -4792,10 +4789,10 @@
     </row>
     <row r="55" spans="5:8">
       <c r="E55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G55" t="s">
         <v>66</v>
@@ -4807,10 +4804,10 @@
     </row>
     <row r="56" spans="5:8">
       <c r="E56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G56" t="s">
         <v>66</v>
@@ -4822,10 +4819,10 @@
     </row>
     <row r="57" spans="5:8">
       <c r="E57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G57" t="s">
         <v>66</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="154">
   <si>
     <r>
       <rPr>
@@ -1977,7 +1977,7 @@
     <t>ISSUECREATE</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>defaultValue</t>
   </si>
   <si>
     <t>1</t>
@@ -2032,9 +2032,6 @@
   </si>
   <si>
     <t>GITLABCONTINUOUSDELIVERYFAILURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>notify_message_setting-23</t>
@@ -2204,12 +2201,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2279,9 +2276,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2292,8 +2289,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2308,6 +2335,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2315,8 +2350,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2346,58 +2389,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2414,17 +2405,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2456,13 +2447,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -2475,12 +2459,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2524,7 +2502,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2536,151 +2592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2698,13 +2610,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2811,56 +2789,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2886,6 +2814,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2896,6 +2850,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2911,151 +2889,151 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3762,11 +3740,14 @@
   <sheetPr/>
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <cols>
+    <col min="10" max="10" width="19.0833333333333" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -4233,7 +4214,7 @@
         <v>66</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s">
         <v>82</v>
@@ -4244,13 +4225,13 @@
     </row>
     <row r="23" spans="5:12">
       <c r="E23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" t="s">
         <v>88</v>
       </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H23" t="s">
         <v>66</v>
@@ -4270,13 +4251,13 @@
     </row>
     <row r="24" spans="5:12">
       <c r="E24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F24" t="s">
         <v>88</v>
       </c>
       <c r="G24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H24" t="s">
         <v>66</v>
@@ -4296,13 +4277,13 @@
     </row>
     <row r="25" spans="5:12">
       <c r="E25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F25" t="s">
         <v>88</v>
       </c>
       <c r="G25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H25" t="s">
         <v>66</v>
@@ -4322,13 +4303,13 @@
     </row>
     <row r="26" spans="5:12">
       <c r="E26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
         <v>88</v>
       </c>
       <c r="G26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H26" t="s">
         <v>66</v>
@@ -4348,13 +4329,13 @@
     </row>
     <row r="27" spans="5:12">
       <c r="E27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F27" t="s">
         <v>88</v>
       </c>
       <c r="G27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H27" t="s">
         <v>66</v>
@@ -4374,13 +4355,13 @@
     </row>
     <row r="28" spans="5:12">
       <c r="E28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F28" t="s">
         <v>88</v>
       </c>
       <c r="G28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H28" t="s">
         <v>66</v>
@@ -4400,13 +4381,13 @@
     </row>
     <row r="29" spans="5:12">
       <c r="E29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H29" t="s">
         <v>66</v>
@@ -4426,13 +4407,13 @@
     </row>
     <row r="30" spans="5:12">
       <c r="E30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F30" t="s">
         <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H30" t="s">
         <v>66</v>
@@ -4461,27 +4442,27 @@
         <v>52</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="33" spans="5:8">
       <c r="E33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" t="s">
         <v>121</v>
-      </c>
-      <c r="F33" t="s">
-        <v>122</v>
       </c>
       <c r="G33" t="s">
         <v>66</v>
@@ -4493,10 +4474,10 @@
     </row>
     <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G34" t="s">
         <v>66</v>
@@ -4508,10 +4489,10 @@
     </row>
     <row r="35" spans="5:8">
       <c r="E35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" t="s">
         <v>124</v>
-      </c>
-      <c r="F35" t="s">
-        <v>125</v>
       </c>
       <c r="G35" t="s">
         <v>66</v>
@@ -4523,10 +4504,10 @@
     </row>
     <row r="36" spans="5:8">
       <c r="E36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G36" t="s">
         <v>66</v>
@@ -4538,10 +4519,10 @@
     </row>
     <row r="37" spans="5:8">
       <c r="E37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G37" t="s">
         <v>66</v>
@@ -4553,10 +4534,10 @@
     </row>
     <row r="38" spans="5:8">
       <c r="E38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" t="s">
         <v>128</v>
-      </c>
-      <c r="F38" t="s">
-        <v>129</v>
       </c>
       <c r="G38" t="s">
         <v>66</v>
@@ -4568,10 +4549,10 @@
     </row>
     <row r="39" spans="5:8">
       <c r="E39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" t="s">
         <v>130</v>
-      </c>
-      <c r="F39" t="s">
-        <v>131</v>
       </c>
       <c r="G39" t="s">
         <v>66</v>
@@ -4583,10 +4564,10 @@
     </row>
     <row r="40" spans="5:8">
       <c r="E40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" t="s">
         <v>132</v>
-      </c>
-      <c r="F40" t="s">
-        <v>133</v>
       </c>
       <c r="G40" t="s">
         <v>66</v>
@@ -4598,10 +4579,10 @@
     </row>
     <row r="41" spans="5:8">
       <c r="E41" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" t="s">
         <v>134</v>
-      </c>
-      <c r="F41" t="s">
-        <v>135</v>
       </c>
       <c r="G41" t="s">
         <v>66</v>
@@ -4613,10 +4594,10 @@
     </row>
     <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G42" t="s">
         <v>66</v>
@@ -4628,10 +4609,10 @@
     </row>
     <row r="43" spans="5:8">
       <c r="E43" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" t="s">
         <v>137</v>
-      </c>
-      <c r="F43" t="s">
-        <v>138</v>
       </c>
       <c r="G43" t="s">
         <v>66</v>
@@ -4643,10 +4624,10 @@
     </row>
     <row r="44" spans="5:8">
       <c r="E44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G44" t="s">
         <v>66</v>
@@ -4658,10 +4639,10 @@
     </row>
     <row r="45" spans="5:8">
       <c r="E45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G45" t="s">
         <v>66</v>
@@ -4673,10 +4654,10 @@
     </row>
     <row r="46" spans="5:8">
       <c r="E46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G46" t="s">
         <v>66</v>
@@ -4688,10 +4669,10 @@
     </row>
     <row r="47" spans="5:8">
       <c r="E47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G47" t="s">
         <v>66</v>
@@ -4703,10 +4684,10 @@
     </row>
     <row r="48" spans="5:8">
       <c r="E48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G48" t="s">
         <v>66</v>
@@ -4718,10 +4699,10 @@
     </row>
     <row r="49" spans="5:8">
       <c r="E49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G49" t="s">
         <v>66</v>
@@ -4733,10 +4714,10 @@
     </row>
     <row r="50" spans="5:8">
       <c r="E50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G50" t="s">
         <v>66</v>
@@ -4748,10 +4729,10 @@
     </row>
     <row r="51" spans="5:8">
       <c r="E51" t="s">
+        <v>145</v>
+      </c>
+      <c r="F51" t="s">
         <v>146</v>
-      </c>
-      <c r="F51" t="s">
-        <v>147</v>
       </c>
       <c r="G51" t="s">
         <v>66</v>
@@ -4763,10 +4744,10 @@
     </row>
     <row r="52" spans="5:8">
       <c r="E52" t="s">
+        <v>147</v>
+      </c>
+      <c r="F52" t="s">
         <v>148</v>
-      </c>
-      <c r="F52" t="s">
-        <v>149</v>
       </c>
       <c r="G52" t="s">
         <v>66</v>
@@ -4778,10 +4759,10 @@
     </row>
     <row r="53" spans="5:8">
       <c r="E53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G53" t="s">
         <v>66</v>
@@ -4793,10 +4774,10 @@
     </row>
     <row r="54" spans="5:8">
       <c r="E54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G54" t="s">
         <v>66</v>
@@ -4808,10 +4789,10 @@
     </row>
     <row r="55" spans="5:8">
       <c r="E55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G55" t="s">
         <v>66</v>
@@ -4823,10 +4804,10 @@
     </row>
     <row r="56" spans="5:8">
       <c r="E56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G56" t="s">
         <v>66</v>
@@ -4838,10 +4819,10 @@
     </row>
     <row r="57" spans="5:8">
       <c r="E57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G57" t="s">
         <v>66</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\框架\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43A7088-E023-49EC-8E84-213E8CEB8943}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -16,18 +22,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="157">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -46,6 +53,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -58,6 +66,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -76,6 +85,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -94,6 +104,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -112,6 +123,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -143,6 +155,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -161,6 +174,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -179,6 +193,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -200,6 +215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -220,6 +236,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -240,6 +257,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -260,6 +278,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -280,6 +299,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -291,6 +311,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -309,6 +330,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -320,6 +342,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -338,6 +361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -356,6 +380,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -374,6 +399,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -392,6 +418,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -439,6 +466,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -457,6 +485,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -475,6 +504,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -493,6 +523,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -504,6 +535,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -522,6 +554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -540,6 +573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -559,6 +593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -577,6 +612,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -596,6 +632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -614,6 +651,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -625,6 +663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -643,6 +682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -661,6 +701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -684,6 +725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -702,6 +744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -720,6 +763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -738,6 +782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -756,6 +801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -767,6 +813,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -785,6 +832,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -795,6 +843,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -815,6 +864,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -825,6 +875,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -843,6 +894,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -861,6 +913,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -884,6 +937,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -902,6 +956,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -921,6 +976,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -940,6 +996,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -959,6 +1016,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -979,6 +1037,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -998,6 +1057,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1032,6 +1092,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1052,6 +1113,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1063,6 +1125,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1081,6 +1144,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1101,6 +1165,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1119,6 +1184,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1131,6 +1197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1149,6 +1216,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1167,6 +1235,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1185,6 +1254,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1199,6 +1269,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1217,6 +1288,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1235,6 +1307,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1253,6 +1326,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1271,6 +1345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1286,6 +1361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1295,6 +1371,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1313,6 +1390,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1328,6 +1406,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1337,6 +1416,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1355,6 +1435,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1369,6 +1450,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1387,6 +1469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1405,6 +1488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1424,6 +1508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1447,6 +1532,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1465,6 +1551,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1483,6 +1570,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1502,6 +1590,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1522,6 +1611,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1532,6 +1622,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1541,6 +1632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1552,6 +1644,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1570,6 +1663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1588,6 +1682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1606,6 +1701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1625,6 +1721,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1643,6 +1740,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1661,6 +1759,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1680,6 +1779,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1698,6 +1798,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1716,6 +1817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1734,6 +1836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1753,6 +1856,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1764,6 +1868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1774,6 +1879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1783,6 +1889,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1794,6 +1901,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1812,6 +1920,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1823,6 +1932,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1841,6 +1951,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1860,6 +1971,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -1983,230 +2095,240 @@
     <t>1</t>
   </si>
   <si>
+    <t>ISSUEASSIGNEE</t>
+  </si>
+  <si>
+    <t>ISSUESOLVE</t>
+  </si>
+  <si>
+    <t>notify_message_setting-17</t>
+  </si>
+  <si>
+    <t>devops</t>
+  </si>
+  <si>
+    <t>ENABLEAPPSERVICE</t>
+  </si>
+  <si>
+    <t>notify_message_setting-18</t>
+  </si>
+  <si>
+    <t>PIPELINEFAILED</t>
+  </si>
+  <si>
+    <t>notify_message_setting-19</t>
+  </si>
+  <si>
+    <t>MERGEREQUESTPASSED</t>
+  </si>
+  <si>
+    <t>notify_message_setting-20</t>
+  </si>
+  <si>
+    <t>INSTANCEFAILURE</t>
+  </si>
+  <si>
+    <t>notify_message_setting-21</t>
+  </si>
+  <si>
+    <t>MERGEREQUESTCLOSED</t>
+  </si>
+  <si>
+    <t>notify_message_setting-22</t>
+  </si>
+  <si>
+    <t>GITLABCONTINUOUSDELIVERYFAILURE</t>
+  </si>
+  <si>
+    <t>notify_message_setting-23</t>
+  </si>
+  <si>
+    <t>PIPELINESUCCESS</t>
+  </si>
+  <si>
+    <t>notify_message_setting-24</t>
+  </si>
+  <si>
+    <t>INGRESSFAILURE</t>
+  </si>
+  <si>
+    <t>notify_message_setting-25</t>
+  </si>
+  <si>
+    <t>CERTIFICATIONFAILURE</t>
+  </si>
+  <si>
+    <t>notify_message_setting-26</t>
+  </si>
+  <si>
+    <t>SERVICEFAILURE</t>
+  </si>
+  <si>
+    <t>notify_message_setting-27</t>
+  </si>
+  <si>
+    <t>APPSERVICECREATIONFAILURE</t>
+  </si>
+  <si>
+    <t>notify_message_setting-28</t>
+  </si>
+  <si>
+    <t>DISABLEAPPSERVICE</t>
+  </si>
+  <si>
+    <t>notify_message_setting-29</t>
+  </si>
+  <si>
+    <t>AUDITMERGEREQUEST</t>
+  </si>
+  <si>
+    <t>DELETEAPPSERVICE</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target</t>
+  </si>
+  <si>
+    <t>#type</t>
+  </si>
+  <si>
+    <t>#user_id</t>
+  </si>
+  <si>
+    <t>#message_setting_id</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-33</t>
+  </si>
+  <si>
+    <t>assignee</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-34</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-35</t>
+  </si>
+  <si>
+    <t>reporter</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-36</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-37</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-38</t>
+  </si>
+  <si>
+    <t>applicationServicePermissionOwner</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-39</t>
+  </si>
+  <si>
+    <t>pipelineTriggers</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-40</t>
+  </si>
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-41</t>
+  </si>
+  <si>
+    <t>instanceDeployer</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-42</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-43</t>
+  </si>
+  <si>
+    <t>codeSubmitter</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-44</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-45</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-46</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-47</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-48</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-49</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-50</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-51</t>
+  </si>
+  <si>
+    <t>projectOwner</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-52</t>
+  </si>
+  <si>
+    <t>handler</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-53</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-54</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-55</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-56</t>
+  </si>
+  <si>
+    <t>notify_message_setting-30</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify_message_setting-31</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE_COMMENT</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify_message_setting-16</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify_message_setting_target-57</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify_message_setting_target-58</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
     <t>notify_message_setting-15</t>
-  </si>
-  <si>
-    <t>ISSUEASSIGNEE</t>
-  </si>
-  <si>
-    <t>notify_message_setting-16</t>
-  </si>
-  <si>
-    <t>ISSUESOLVE</t>
-  </si>
-  <si>
-    <t>notify_message_setting-17</t>
-  </si>
-  <si>
-    <t>devops</t>
-  </si>
-  <si>
-    <t>ENABLEAPPSERVICE</t>
-  </si>
-  <si>
-    <t>notify_message_setting-18</t>
-  </si>
-  <si>
-    <t>PIPELINEFAILED</t>
-  </si>
-  <si>
-    <t>notify_message_setting-19</t>
-  </si>
-  <si>
-    <t>MERGEREQUESTPASSED</t>
-  </si>
-  <si>
-    <t>notify_message_setting-20</t>
-  </si>
-  <si>
-    <t>INSTANCEFAILURE</t>
-  </si>
-  <si>
-    <t>notify_message_setting-21</t>
-  </si>
-  <si>
-    <t>MERGEREQUESTCLOSED</t>
-  </si>
-  <si>
-    <t>notify_message_setting-22</t>
-  </si>
-  <si>
-    <t>GITLABCONTINUOUSDELIVERYFAILURE</t>
-  </si>
-  <si>
-    <t>notify_message_setting-23</t>
-  </si>
-  <si>
-    <t>PIPELINESUCCESS</t>
-  </si>
-  <si>
-    <t>notify_message_setting-24</t>
-  </si>
-  <si>
-    <t>INGRESSFAILURE</t>
-  </si>
-  <si>
-    <t>notify_message_setting-25</t>
-  </si>
-  <si>
-    <t>CERTIFICATIONFAILURE</t>
-  </si>
-  <si>
-    <t>notify_message_setting-26</t>
-  </si>
-  <si>
-    <t>SERVICEFAILURE</t>
-  </si>
-  <si>
-    <t>notify_message_setting-27</t>
-  </si>
-  <si>
-    <t>APPSERVICECREATIONFAILURE</t>
-  </si>
-  <si>
-    <t>notify_message_setting-28</t>
-  </si>
-  <si>
-    <t>DISABLEAPPSERVICE</t>
-  </si>
-  <si>
-    <t>notify_message_setting-29</t>
-  </si>
-  <si>
-    <t>AUDITMERGEREQUEST</t>
-  </si>
-  <si>
-    <t>notify_message_setting-30</t>
-  </si>
-  <si>
-    <t>DELETEAPPSERVICE</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target</t>
-  </si>
-  <si>
-    <t>#type</t>
-  </si>
-  <si>
-    <t>#user_id</t>
-  </si>
-  <si>
-    <t>#message_setting_id</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-33</t>
-  </si>
-  <si>
-    <t>assignee</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-34</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-35</t>
-  </si>
-  <si>
-    <t>reporter</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-36</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-37</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-38</t>
-  </si>
-  <si>
-    <t>applicationServicePermissionOwner</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-39</t>
-  </si>
-  <si>
-    <t>pipelineTriggers</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-40</t>
-  </si>
-  <si>
-    <t>creator</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-41</t>
-  </si>
-  <si>
-    <t>instanceDeployer</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-42</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-43</t>
-  </si>
-  <si>
-    <t>codeSubmitter</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-44</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-45</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-46</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-47</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-48</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-49</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-50</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-51</t>
-  </si>
-  <si>
-    <t>projectOwner</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-52</t>
-  </si>
-  <si>
-    <t>handler</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-53</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-54</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-55</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-56</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-57</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2217,25 +2339,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2275,157 +2397,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -2454,12 +2425,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2468,8 +2441,43 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2500,194 +2508,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2788,254 +2610,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3049,20 +2629,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3096,9 +2664,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3106,59 +2671,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3231,6 +2765,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3488,268 +3025,265 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="12" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="14" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="21" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="24" t="s">
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="27" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="21" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="21" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="29" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="33" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="33" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="33" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="33" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="34" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="22" t="s">
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="35" t="s">
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="30" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="10" max="10" width="19.0833333333333" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3763,7 +3297,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:13">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3815,7 +3349,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="5:13">
+    <row r="8" spans="1:13">
       <c r="E8" t="s">
         <v>63</v>
       </c>
@@ -3844,7 +3378,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="5:13">
+    <row r="9" spans="1:13">
       <c r="E9" t="s">
         <v>68</v>
       </c>
@@ -3873,7 +3407,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="5:13">
+    <row r="10" spans="1:13">
       <c r="E10" t="s">
         <v>70</v>
       </c>
@@ -3902,7 +3436,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="5:13">
+    <row r="11" spans="1:13">
       <c r="E11" t="s">
         <v>72</v>
       </c>
@@ -3931,7 +3465,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="5:13">
+    <row r="12" spans="1:13">
       <c r="E12" t="s">
         <v>74</v>
       </c>
@@ -3960,7 +3494,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="5:13">
+    <row r="13" spans="1:13">
       <c r="E13" t="s">
         <v>76</v>
       </c>
@@ -3989,7 +3523,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="5:12">
+    <row r="14" spans="1:13">
       <c r="E14" t="s">
         <v>78</v>
       </c>
@@ -4015,15 +3549,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="5:12">
-      <c r="E15" t="s">
-        <v>83</v>
+    <row r="15" spans="1:13">
+      <c r="E15" s="36" t="s">
+        <v>156</v>
       </c>
       <c r="F15" t="s">
         <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
         <v>66</v>
@@ -4041,15 +3575,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="5:12">
-      <c r="E16" t="s">
-        <v>85</v>
+    <row r="16" spans="1:13">
+      <c r="E16" s="36" t="s">
+        <v>153</v>
       </c>
       <c r="F16" t="s">
         <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s">
         <v>66</v>
@@ -4069,13 +3603,13 @@
     </row>
     <row r="17" spans="5:12">
       <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
         <v>87</v>
-      </c>
-      <c r="F17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" t="s">
-        <v>89</v>
       </c>
       <c r="H17" t="s">
         <v>66</v>
@@ -4095,13 +3629,13 @@
     </row>
     <row r="18" spans="5:12">
       <c r="E18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s">
         <v>66</v>
@@ -4121,13 +3655,13 @@
     </row>
     <row r="19" spans="5:12">
       <c r="E19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s">
         <v>66</v>
@@ -4147,13 +3681,13 @@
     </row>
     <row r="20" spans="5:12">
       <c r="E20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H20" t="s">
         <v>66</v>
@@ -4173,13 +3707,13 @@
     </row>
     <row r="21" spans="5:12">
       <c r="E21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -4199,13 +3733,13 @@
     </row>
     <row r="22" spans="5:12">
       <c r="E22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H22" t="s">
         <v>66</v>
@@ -4225,13 +3759,13 @@
     </row>
     <row r="23" spans="5:12">
       <c r="E23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H23" t="s">
         <v>66</v>
@@ -4251,13 +3785,13 @@
     </row>
     <row r="24" spans="5:12">
       <c r="E24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H24" t="s">
         <v>66</v>
@@ -4277,13 +3811,13 @@
     </row>
     <row r="25" spans="5:12">
       <c r="E25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H25" t="s">
         <v>66</v>
@@ -4303,13 +3837,13 @@
     </row>
     <row r="26" spans="5:12">
       <c r="E26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H26" t="s">
         <v>66</v>
@@ -4329,13 +3863,13 @@
     </row>
     <row r="27" spans="5:12">
       <c r="E27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H27" t="s">
         <v>66</v>
@@ -4355,13 +3889,13 @@
     </row>
     <row r="28" spans="5:12">
       <c r="E28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H28" t="s">
         <v>66</v>
@@ -4381,13 +3915,13 @@
     </row>
     <row r="29" spans="5:12">
       <c r="E29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H29" t="s">
         <v>66</v>
@@ -4406,14 +3940,14 @@
       </c>
     </row>
     <row r="30" spans="5:12">
-      <c r="E30" t="s">
-        <v>114</v>
+      <c r="E30" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H30" t="s">
         <v>66</v>
@@ -4431,68 +3965,79 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
+    <row r="31" spans="5:12">
+      <c r="E31" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="H31" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" t="s">
+        <v>81</v>
+      </c>
+      <c r="K31" t="s">
+        <v>82</v>
+      </c>
+      <c r="L31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
         <v>50</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>51</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="3" t="s">
+    </row>
+    <row r="34" spans="1:8">
+      <c r="E34" t="s">
         <v>117</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="F34" t="s">
         <v>118</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8">
-      <c r="E33" t="s">
-        <v>120</v>
-      </c>
-      <c r="F33" t="s">
-        <v>121</v>
-      </c>
-      <c r="G33" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" t="str">
+      <c r="G34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" t="str">
         <f>项目层发送设置!$E$14</f>
         <v>notify_message_setting-14</v>
       </c>
     </row>
-    <row r="34" spans="5:8">
-      <c r="E34" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" t="s">
-        <v>121</v>
-      </c>
-      <c r="G34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" t="str">
-        <f>项目层发送设置!$E$15</f>
-        <v>notify_message_setting-15</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8">
+    <row r="35" spans="1:8">
       <c r="E35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F35" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G35" t="s">
         <v>66</v>
@@ -4502,9 +4047,9 @@
         <v>notify_message_setting-15</v>
       </c>
     </row>
-    <row r="36" spans="5:8">
+    <row r="36" spans="1:8">
       <c r="E36" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F36" t="s">
         <v>121</v>
@@ -4513,16 +4058,16 @@
         <v>66</v>
       </c>
       <c r="H36" t="str">
-        <f>项目层发送设置!$E$16</f>
-        <v>notify_message_setting-16</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8">
+        <f>项目层发送设置!$E$15</f>
+        <v>notify_message_setting-15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="E37" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G37" t="s">
         <v>66</v>
@@ -4532,308 +4077,354 @@
         <v>notify_message_setting-16</v>
       </c>
     </row>
-    <row r="38" spans="5:8">
+    <row r="38" spans="1:8">
       <c r="E38" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F38" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G38" t="s">
         <v>66</v>
       </c>
       <c r="H38" t="str">
+        <f>项目层发送设置!$E$16</f>
+        <v>notify_message_setting-16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="E39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" t="str">
         <f>项目层发送设置!$E$17</f>
         <v>notify_message_setting-17</v>
       </c>
     </row>
-    <row r="39" spans="5:8">
-      <c r="E39" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" t="s">
-        <v>130</v>
-      </c>
-      <c r="G39" t="s">
-        <v>66</v>
-      </c>
-      <c r="H39" t="str">
+    <row r="40" spans="1:8">
+      <c r="E40" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" t="str">
         <f>项目层发送设置!$E$18</f>
         <v>notify_message_setting-18</v>
       </c>
     </row>
-    <row r="40" spans="5:8">
-      <c r="E40" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40" t="s">
-        <v>66</v>
-      </c>
-      <c r="H40" t="str">
+    <row r="41" spans="1:8">
+      <c r="E41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" t="str">
         <f>项目层发送设置!$E$19</f>
         <v>notify_message_setting-19</v>
       </c>
     </row>
-    <row r="41" spans="5:8">
-      <c r="E41" t="s">
-        <v>133</v>
-      </c>
-      <c r="F41" t="s">
-        <v>134</v>
-      </c>
-      <c r="G41" t="s">
-        <v>66</v>
-      </c>
-      <c r="H41" t="str">
+    <row r="42" spans="1:8">
+      <c r="E42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42" t="str">
         <f>项目层发送设置!$E$20</f>
         <v>notify_message_setting-20</v>
       </c>
     </row>
-    <row r="42" spans="5:8">
-      <c r="E42" t="s">
-        <v>135</v>
-      </c>
-      <c r="F42" t="s">
+    <row r="43" spans="1:8">
+      <c r="E43" t="s">
         <v>132</v>
       </c>
-      <c r="G42" t="s">
-        <v>66</v>
-      </c>
-      <c r="H42" t="str">
+      <c r="F43" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" t="str">
         <f>项目层发送设置!$E$21</f>
         <v>notify_message_setting-21</v>
       </c>
     </row>
-    <row r="43" spans="5:8">
-      <c r="E43" t="s">
-        <v>136</v>
-      </c>
-      <c r="F43" t="s">
-        <v>137</v>
-      </c>
-      <c r="G43" t="s">
-        <v>66</v>
-      </c>
-      <c r="H43" t="str">
+    <row r="44" spans="1:8">
+      <c r="E44" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" t="s">
+        <v>134</v>
+      </c>
+      <c r="G44" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" t="str">
         <f>项目层发送设置!$E$22</f>
         <v>notify_message_setting-22</v>
       </c>
     </row>
-    <row r="44" spans="5:8">
-      <c r="E44" t="s">
-        <v>138</v>
-      </c>
-      <c r="F44" t="s">
-        <v>130</v>
-      </c>
-      <c r="G44" t="s">
-        <v>66</v>
-      </c>
-      <c r="H44" t="str">
+    <row r="45" spans="1:8">
+      <c r="E45" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" t="str">
         <f>项目层发送设置!$E$23</f>
         <v>notify_message_setting-23</v>
       </c>
     </row>
-    <row r="45" spans="5:8">
-      <c r="E45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" t="s">
-        <v>132</v>
-      </c>
-      <c r="G45" t="s">
-        <v>66</v>
-      </c>
-      <c r="H45" t="str">
+    <row r="46" spans="1:8">
+      <c r="E46" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" t="str">
         <f>项目层发送设置!$E$24</f>
         <v>notify_message_setting-24</v>
       </c>
     </row>
-    <row r="46" spans="5:8">
-      <c r="E46" t="s">
-        <v>140</v>
-      </c>
-      <c r="F46" t="s">
-        <v>132</v>
-      </c>
-      <c r="G46" t="s">
-        <v>66</v>
-      </c>
-      <c r="H46" t="str">
+    <row r="47" spans="1:8">
+      <c r="E47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" t="s">
+        <v>129</v>
+      </c>
+      <c r="G47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" t="str">
         <f>项目层发送设置!$E$25</f>
         <v>notify_message_setting-25</v>
       </c>
     </row>
-    <row r="47" spans="5:8">
-      <c r="E47" t="s">
-        <v>141</v>
-      </c>
-      <c r="F47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H47" t="str">
+    <row r="48" spans="1:8">
+      <c r="E48" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48" t="str">
         <f>项目层发送设置!$E$26</f>
         <v>notify_message_setting-26</v>
       </c>
     </row>
-    <row r="48" spans="5:8">
-      <c r="E48" t="s">
-        <v>142</v>
-      </c>
-      <c r="F48" t="s">
-        <v>132</v>
-      </c>
-      <c r="G48" t="s">
-        <v>66</v>
-      </c>
-      <c r="H48" t="str">
+    <row r="49" spans="5:8">
+      <c r="E49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" t="str">
         <f>项目层发送设置!$E$27</f>
         <v>notify_message_setting-27</v>
       </c>
     </row>
-    <row r="49" spans="5:8">
-      <c r="E49" t="s">
-        <v>143</v>
-      </c>
-      <c r="F49" t="s">
-        <v>128</v>
-      </c>
-      <c r="G49" t="s">
-        <v>66</v>
-      </c>
-      <c r="H49" t="str">
+    <row r="50" spans="5:8">
+      <c r="E50" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50" t="s">
+        <v>125</v>
+      </c>
+      <c r="G50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50" t="str">
         <f>项目层发送设置!$E$28</f>
         <v>notify_message_setting-28</v>
       </c>
     </row>
-    <row r="50" spans="5:8">
-      <c r="E50" t="s">
-        <v>144</v>
-      </c>
-      <c r="F50" t="s">
-        <v>121</v>
-      </c>
-      <c r="G50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H50" t="str">
+    <row r="51" spans="5:8">
+      <c r="E51" t="s">
+        <v>141</v>
+      </c>
+      <c r="F51" t="s">
+        <v>118</v>
+      </c>
+      <c r="G51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H51" t="str">
         <f>项目层发送设置!$E$29</f>
         <v>notify_message_setting-29</v>
       </c>
     </row>
-    <row r="51" spans="5:8">
-      <c r="E51" t="s">
-        <v>145</v>
-      </c>
-      <c r="F51" t="s">
-        <v>146</v>
-      </c>
-      <c r="G51" t="s">
-        <v>66</v>
-      </c>
-      <c r="H51" t="str">
+    <row r="52" spans="5:8">
+      <c r="E52" t="s">
+        <v>142</v>
+      </c>
+      <c r="F52" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" t="s">
+        <v>66</v>
+      </c>
+      <c r="H52" t="str">
         <f>项目层发送设置!$E$8</f>
         <v>notify_message_setting-8</v>
       </c>
     </row>
-    <row r="52" spans="5:8">
-      <c r="E52" t="s">
-        <v>147</v>
-      </c>
-      <c r="F52" t="s">
-        <v>148</v>
-      </c>
-      <c r="G52" t="s">
-        <v>66</v>
-      </c>
-      <c r="H52" t="str">
+    <row r="53" spans="5:8">
+      <c r="E53" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" t="s">
+        <v>145</v>
+      </c>
+      <c r="G53" t="s">
+        <v>66</v>
+      </c>
+      <c r="H53" t="str">
         <f>项目层发送设置!$E$9</f>
         <v>notify_message_setting-9</v>
       </c>
     </row>
-    <row r="53" spans="5:8">
-      <c r="E53" t="s">
-        <v>149</v>
-      </c>
-      <c r="F53" t="s">
-        <v>148</v>
-      </c>
-      <c r="G53" t="s">
-        <v>66</v>
-      </c>
-      <c r="H53" t="str">
+    <row r="54" spans="5:8">
+      <c r="E54" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G54" t="s">
+        <v>66</v>
+      </c>
+      <c r="H54" t="str">
         <f>项目层发送设置!$E$13</f>
         <v>notify_message_setting-13</v>
       </c>
     </row>
-    <row r="54" spans="5:8">
-      <c r="E54" t="s">
-        <v>150</v>
-      </c>
-      <c r="F54" t="s">
-        <v>148</v>
-      </c>
-      <c r="G54" t="s">
-        <v>66</v>
-      </c>
-      <c r="H54" t="str">
+    <row r="55" spans="5:8">
+      <c r="E55" t="s">
+        <v>147</v>
+      </c>
+      <c r="F55" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55" t="str">
         <f>项目层发送设置!$E$10</f>
         <v>notify_message_setting-10</v>
       </c>
     </row>
-    <row r="55" spans="5:8">
-      <c r="E55" t="s">
-        <v>151</v>
-      </c>
-      <c r="F55" t="s">
+    <row r="56" spans="5:8">
+      <c r="E56" t="s">
         <v>148</v>
       </c>
-      <c r="G55" t="s">
-        <v>66</v>
-      </c>
-      <c r="H55" t="str">
+      <c r="F56" t="s">
+        <v>145</v>
+      </c>
+      <c r="G56" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" t="str">
         <f>项目层发送设置!$E$12</f>
         <v>notify_message_setting-12</v>
       </c>
     </row>
-    <row r="56" spans="5:8">
-      <c r="E56" t="s">
-        <v>152</v>
-      </c>
-      <c r="F56" t="s">
-        <v>146</v>
-      </c>
-      <c r="G56" t="s">
-        <v>66</v>
-      </c>
-      <c r="H56" t="str">
+    <row r="57" spans="5:8">
+      <c r="E57" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" t="s">
+        <v>143</v>
+      </c>
+      <c r="G57" t="s">
+        <v>66</v>
+      </c>
+      <c r="H57" t="str">
         <f>项目层发送设置!$E$11</f>
         <v>notify_message_setting-11</v>
       </c>
     </row>
-    <row r="57" spans="5:8">
-      <c r="E57" t="s">
-        <v>153</v>
-      </c>
-      <c r="F57" t="s">
-        <v>128</v>
-      </c>
-      <c r="G57" t="s">
-        <v>66</v>
-      </c>
-      <c r="H57" t="str">
+    <row r="58" spans="5:8">
+      <c r="E58" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F58" t="s">
+        <v>125</v>
+      </c>
+      <c r="G58" t="s">
+        <v>66</v>
+      </c>
+      <c r="H58" t="str">
         <f>项目层发送设置!$E$30</f>
         <v>notify_message_setting-30</v>
       </c>
     </row>
+    <row r="59" spans="5:8">
+      <c r="E59" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" t="s">
+        <v>118</v>
+      </c>
+      <c r="G59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" t="str">
+        <f>项目层发送设置!$E$31</f>
+        <v>notify_message_setting-31</v>
+      </c>
+    </row>
+    <row r="60" spans="5:8">
+      <c r="E60" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" t="s">
+        <v>121</v>
+      </c>
+      <c r="G60" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60" t="str">
+        <f>项目层发送设置!$E$31</f>
+        <v>notify_message_setting-31</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>